--- a/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9970424161627358</v>
+        <v>0.9915131038811706</v>
       </c>
       <c r="D3">
+        <v>0.997042416162736</v>
+      </c>
+      <c r="E3">
+        <v>1.018724109637097</v>
+      </c>
+      <c r="F3">
+        <v>0.9720790934838743</v>
+      </c>
+      <c r="G3">
         <v>1.029353585538342</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>0.997042416162736</v>
+      </c>
+      <c r="I3">
         <v>0.9895912582429734</v>
-      </c>
-      <c r="F3">
-        <v>0.9970424161627358</v>
-      </c>
-      <c r="G3">
-        <v>0.9720790934838743</v>
-      </c>
-      <c r="H3">
-        <v>1.018724109637097</v>
-      </c>
-      <c r="I3">
-        <v>0.9915131038811706</v>
       </c>
       <c r="J3">
         <v>1.029353585538342</v>
       </c>
       <c r="K3">
-        <v>0.9970424161627358</v>
+        <v>0.997042416162736</v>
       </c>
       <c r="L3">
         <v>0.9895912582429734</v>
@@ -728,7 +680,7 @@
         <v>0.999717261157699</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9836292319781862</v>
+      </c>
+      <c r="D4">
         <v>0.9944260273942619</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.036139782684184</v>
+      </c>
+      <c r="F4">
+        <v>0.9459945826159266</v>
+      </c>
+      <c r="G4">
         <v>1.056636630990185</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>0.9944260273942619</v>
+      </c>
+      <c r="I4">
         <v>0.9798867912512477</v>
-      </c>
-      <c r="F4">
-        <v>0.9944260273942619</v>
-      </c>
-      <c r="G4">
-        <v>0.9459945826159267</v>
-      </c>
-      <c r="H4">
-        <v>1.036139782684185</v>
-      </c>
-      <c r="I4">
-        <v>0.9836292319781862</v>
       </c>
       <c r="J4">
         <v>1.056636630990185</v>
@@ -787,10 +739,10 @@
         <v>1.006343869257489</v>
       </c>
       <c r="T4">
-        <v>0.9994521744856654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994521744856653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9685254604680354</v>
+      </c>
+      <c r="D5">
         <v>0.9882046152335359</v>
       </c>
-      <c r="D5">
-        <v>1.108591297276721</v>
-      </c>
       <c r="E5">
+        <v>1.069296052399314</v>
+      </c>
+      <c r="F5">
+        <v>0.8977306797251826</v>
+      </c>
+      <c r="G5">
+        <v>1.108591297276722</v>
+      </c>
+      <c r="H5">
+        <v>0.9882046152335359</v>
+      </c>
+      <c r="I5">
         <v>0.9616575607585645</v>
       </c>
-      <c r="F5">
-        <v>0.9882046152335359</v>
-      </c>
-      <c r="G5">
-        <v>0.8977306797251827</v>
-      </c>
-      <c r="H5">
-        <v>1.069296052399314</v>
-      </c>
-      <c r="I5">
-        <v>0.9685254604680356</v>
-      </c>
       <c r="J5">
-        <v>1.108591297276721</v>
+        <v>1.108591297276722</v>
       </c>
       <c r="K5">
         <v>0.9882046152335359</v>
@@ -852,7 +804,7 @@
         <v>0.9990009443102257</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9533848858996496</v>
+      </c>
+      <c r="D6">
         <v>0.9828997828081983</v>
       </c>
-      <c r="D6">
-        <v>1.154322128496852</v>
-      </c>
       <c r="E6">
+        <v>1.102391258570157</v>
+      </c>
+      <c r="F6">
+        <v>0.8499833282888689</v>
+      </c>
+      <c r="G6">
+        <v>1.154322128496853</v>
+      </c>
+      <c r="H6">
+        <v>0.9828997828081983</v>
+      </c>
+      <c r="I6">
         <v>0.9422238534981207</v>
       </c>
-      <c r="F6">
-        <v>0.9828997828081983</v>
-      </c>
-      <c r="G6">
-        <v>0.8499833282888689</v>
-      </c>
-      <c r="H6">
-        <v>1.102391258570157</v>
-      </c>
-      <c r="I6">
-        <v>0.9533848858996496</v>
-      </c>
       <c r="J6">
-        <v>1.154322128496852</v>
+        <v>1.154322128496853</v>
       </c>
       <c r="K6">
         <v>0.9828997828081983</v>
@@ -914,7 +866,7 @@
         <v>0.9975342062603079</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994337321505069</v>
+        <v>0.9993893400585304</v>
       </c>
       <c r="D7">
+        <v>0.9994337321505062</v>
+      </c>
+      <c r="E7">
+        <v>1.001199365125403</v>
+      </c>
+      <c r="F7">
+        <v>0.9988103506203301</v>
+      </c>
+      <c r="G7">
         <v>1.002289901862889</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>0.9994337321505062</v>
+      </c>
+      <c r="I7">
         <v>0.9994457313396182</v>
-      </c>
-      <c r="F7">
-        <v>0.9994337321505069</v>
-      </c>
-      <c r="G7">
-        <v>0.9988103506203296</v>
-      </c>
-      <c r="H7">
-        <v>1.001199365125403</v>
-      </c>
-      <c r="I7">
-        <v>0.9993893400585304</v>
       </c>
       <c r="J7">
         <v>1.002289901862889</v>
       </c>
       <c r="K7">
-        <v>0.9994337321505069</v>
+        <v>0.9994337321505062</v>
       </c>
       <c r="L7">
         <v>0.9994457313396182</v>
@@ -976,7 +928,7 @@
         <v>1.000094736859546</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,40 +936,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9993816454619493</v>
+        <v>0.9985540343125299</v>
       </c>
       <c r="D8">
+        <v>0.9993816454619487</v>
+      </c>
+      <c r="E8">
+        <v>1.002673884918088</v>
+      </c>
+      <c r="F8">
+        <v>0.9971571993390932</v>
+      </c>
+      <c r="G8">
         <v>1.005163739904502</v>
       </c>
-      <c r="E8">
-        <v>0.9985007326163233</v>
-      </c>
-      <c r="F8">
-        <v>0.9993816454619493</v>
-      </c>
-      <c r="G8">
-        <v>0.9971571993390932</v>
-      </c>
       <c r="H8">
-        <v>1.002673884918088</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="I8">
-        <v>0.9985540343125299</v>
+        <v>0.9985007326163237</v>
       </c>
       <c r="J8">
         <v>1.005163739904502</v>
       </c>
       <c r="K8">
-        <v>0.9993816454619493</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="L8">
-        <v>0.9985007326163233</v>
+        <v>0.9985007326163237</v>
       </c>
       <c r="M8">
-        <v>1.001832236260412</v>
+        <v>1.001832236260413</v>
       </c>
       <c r="N8">
-        <v>1.001832236260412</v>
+        <v>1.001832236260413</v>
       </c>
       <c r="O8">
         <v>1.002112785812971</v>
@@ -1038,7 +990,7 @@
         <v>1.000238539425414</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9981742060467709</v>
+      </c>
+      <c r="D9">
         <v>1.000208210202101</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.003438761824486</v>
+      </c>
+      <c r="F9">
+        <v>0.9951189135733662</v>
+      </c>
+      <c r="G9">
         <v>1.006723809707506</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1.000208210202101</v>
+      </c>
+      <c r="I9">
         <v>0.9976886989902576</v>
-      </c>
-      <c r="F9">
-        <v>1.000208210202101</v>
-      </c>
-      <c r="G9">
-        <v>0.9951189135733662</v>
-      </c>
-      <c r="H9">
-        <v>1.003438761824486</v>
-      </c>
-      <c r="I9">
-        <v>0.9981742060467709</v>
       </c>
       <c r="J9">
         <v>1.006723809707506</v>
@@ -1100,7 +1052,7 @@
         <v>1.000225433390748</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9959208182557111</v>
+      </c>
+      <c r="D10">
         <v>0.9989760708699846</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.007723736617534</v>
+      </c>
+      <c r="F10">
+        <v>0.990377384221969</v>
+      </c>
+      <c r="G10">
         <v>1.014837372132853</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>0.9989760708699846</v>
+      </c>
+      <c r="I10">
         <v>0.9954126664810458</v>
-      </c>
-      <c r="F10">
-        <v>0.9989760708699846</v>
-      </c>
-      <c r="G10">
-        <v>0.990377384221969</v>
-      </c>
-      <c r="H10">
-        <v>1.007723736617534</v>
-      </c>
-      <c r="I10">
-        <v>0.9959208182557111</v>
       </c>
       <c r="J10">
         <v>1.014837372132853</v>
@@ -1159,10 +1111,10 @@
         <v>1.002050545088467</v>
       </c>
       <c r="T10">
-        <v>1.00054134142985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000541341429849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9933677357828513</v>
+      </c>
+      <c r="D11">
         <v>1.002461628237658</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.012210902602174</v>
+      </c>
+      <c r="F11">
+        <v>0.9824003052210518</v>
+      </c>
+      <c r="G11">
         <v>1.022714826125585</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>1.002461628237658</v>
+      </c>
+      <c r="I11">
         <v>0.9910108347110824</v>
-      </c>
-      <c r="F11">
-        <v>1.002461628237658</v>
-      </c>
-      <c r="G11">
-        <v>0.9824003052210519</v>
-      </c>
-      <c r="H11">
-        <v>1.012210902602173</v>
-      </c>
-      <c r="I11">
-        <v>0.9933677357828513</v>
       </c>
       <c r="J11">
         <v>1.022714826125585</v>
@@ -1224,7 +1176,7 @@
         <v>1.000694372113401</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1184,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.403528402389451</v>
+        <v>1.054856370919584</v>
       </c>
       <c r="D12">
-        <v>0.6635768923684405</v>
+        <v>1.403528402389452</v>
       </c>
       <c r="E12">
+        <v>0.9214158108128403</v>
+      </c>
+      <c r="F12">
+        <v>0.6690815528534579</v>
+      </c>
+      <c r="G12">
+        <v>0.6635768923684404</v>
+      </c>
+      <c r="H12">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="I12">
         <v>0.9124005190079704</v>
       </c>
-      <c r="F12">
-        <v>1.403528402389451</v>
-      </c>
-      <c r="G12">
-        <v>0.6690815528534578</v>
-      </c>
-      <c r="H12">
-        <v>0.9214158108128404</v>
-      </c>
-      <c r="I12">
-        <v>1.054856370919584</v>
-      </c>
       <c r="J12">
-        <v>0.6635768923684405</v>
+        <v>0.6635768923684404</v>
       </c>
       <c r="K12">
-        <v>1.403528402389451</v>
+        <v>1.403528402389452</v>
       </c>
       <c r="L12">
         <v>0.9124005190079704</v>
       </c>
       <c r="M12">
-        <v>0.7879887056882054</v>
+        <v>0.7879887056882053</v>
       </c>
       <c r="N12">
-        <v>0.7879887056882054</v>
+        <v>0.7879887056882053</v>
       </c>
       <c r="O12">
-        <v>0.832464407396417</v>
+        <v>0.8324644073964169</v>
       </c>
       <c r="P12">
         <v>0.9931686045886208</v>
       </c>
       <c r="Q12">
-        <v>0.9931686045886208</v>
+        <v>0.9931686045886209</v>
       </c>
       <c r="R12">
-        <v>1.095758554038828</v>
+        <v>1.095758554038829</v>
       </c>
       <c r="S12">
-        <v>1.095758554038828</v>
+        <v>1.095758554038829</v>
       </c>
       <c r="T12">
-        <v>0.9374765913919574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9374765913919575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8468081759927387</v>
+        <v>0.996385589877836</v>
       </c>
       <c r="D13">
-        <v>1.056037866762895</v>
+        <v>0.8468081759927384</v>
       </c>
       <c r="E13">
+        <v>0.990954488041769</v>
+      </c>
+      <c r="F13">
+        <v>1.194609717712538</v>
+      </c>
+      <c r="G13">
+        <v>1.056037866762896</v>
+      </c>
+      <c r="H13">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="I13">
         <v>1.056712734359743</v>
       </c>
-      <c r="F13">
-        <v>0.8468081759927387</v>
-      </c>
-      <c r="G13">
-        <v>1.194609717712538</v>
-      </c>
-      <c r="H13">
-        <v>0.9909544880417693</v>
-      </c>
-      <c r="I13">
-        <v>0.996385589877836</v>
-      </c>
       <c r="J13">
-        <v>1.056037866762895</v>
+        <v>1.056037866762896</v>
       </c>
       <c r="K13">
-        <v>0.8468081759927387</v>
+        <v>0.8468081759927384</v>
       </c>
       <c r="L13">
         <v>1.056712734359743</v>
@@ -1330,7 +1282,7 @@
         <v>1.056375300561319</v>
       </c>
       <c r="O13">
-        <v>1.034568363054802</v>
+        <v>1.034568363054803</v>
       </c>
       <c r="P13">
         <v>0.9865195923717923</v>
@@ -1339,16 +1291,16 @@
         <v>0.9865195923717923</v>
       </c>
       <c r="R13">
-        <v>0.9515917382770289</v>
+        <v>0.9515917382770288</v>
       </c>
       <c r="S13">
-        <v>0.9515917382770289</v>
+        <v>0.9515917382770288</v>
       </c>
       <c r="T13">
         <v>1.023584762124587</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.005043496379461</v>
+      </c>
+      <c r="D14">
         <v>0.5063513293273471</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>0.9346638511948349</v>
+      </c>
+      <c r="F14">
+        <v>1.70896085236904</v>
+      </c>
+      <c r="G14">
         <v>1.133231073840437</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="I14">
         <v>1.205819316301074</v>
-      </c>
-      <c r="F14">
-        <v>0.5063513293273471</v>
-      </c>
-      <c r="G14">
-        <v>1.70896085236904</v>
-      </c>
-      <c r="H14">
-        <v>0.9346638511948349</v>
-      </c>
-      <c r="I14">
-        <v>1.005043496379461</v>
       </c>
       <c r="J14">
         <v>1.133231073840437</v>
@@ -1386,31 +1338,31 @@
         <v>1.205819316301074</v>
       </c>
       <c r="M14">
-        <v>1.169525195070756</v>
+        <v>1.169525195070755</v>
       </c>
       <c r="N14">
-        <v>1.169525195070756</v>
+        <v>1.169525195070755</v>
       </c>
       <c r="O14">
-        <v>1.091238080445449</v>
+        <v>1.091238080445448</v>
       </c>
       <c r="P14">
-        <v>0.9484672398229529</v>
+        <v>0.9484672398229527</v>
       </c>
       <c r="Q14">
-        <v>0.9484672398229527</v>
+        <v>0.9484672398229526</v>
       </c>
       <c r="R14">
-        <v>0.8379382621990513</v>
+        <v>0.8379382621990512</v>
       </c>
       <c r="S14">
-        <v>0.8379382621990513</v>
+        <v>0.8379382621990512</v>
       </c>
       <c r="T14">
         <v>1.082344986568699</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.048364768093853</v>
+      </c>
+      <c r="D15">
         <v>1.231506167274014</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.9330540408966668</v>
+      </c>
+      <c r="F15">
+        <v>0.7342906767667204</v>
+      </c>
+      <c r="G15">
         <v>0.8684645401865594</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="I15">
         <v>0.9700202581814543</v>
-      </c>
-      <c r="F15">
-        <v>1.231506167274014</v>
-      </c>
-      <c r="G15">
-        <v>0.7342906767667204</v>
-      </c>
-      <c r="H15">
-        <v>0.9330540408966668</v>
-      </c>
-      <c r="I15">
-        <v>1.048364768093853</v>
       </c>
       <c r="J15">
         <v>0.8684645401865594</v>
@@ -1472,7 +1424,7 @@
         <v>0.9642834085665445</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9985233163968461</v>
+        <v>0.8348978810984398</v>
       </c>
       <c r="D16">
-        <v>1.000797781304613</v>
+        <v>0.9269852333069023</v>
       </c>
       <c r="E16">
-        <v>1.000232064647215</v>
+        <v>1.364799883339767</v>
       </c>
       <c r="F16">
-        <v>0.9985233163968461</v>
+        <v>0.468396270481866</v>
       </c>
       <c r="G16">
-        <v>1.001267860773857</v>
+        <v>1.587994818637111</v>
       </c>
       <c r="H16">
-        <v>1.000235140179138</v>
+        <v>0.9269852333069023</v>
       </c>
       <c r="I16">
-        <v>0.9998967927352802</v>
+        <v>0.8027255174443521</v>
       </c>
       <c r="J16">
-        <v>1.000797781304613</v>
+        <v>1.587994818637111</v>
       </c>
       <c r="K16">
-        <v>0.9985233163968461</v>
+        <v>0.9269852333069023</v>
       </c>
       <c r="L16">
-        <v>1.000232064647215</v>
+        <v>0.8027255174443521</v>
       </c>
       <c r="M16">
-        <v>1.000514922975914</v>
+        <v>1.195360168040731</v>
       </c>
       <c r="N16">
-        <v>1.000514922975914</v>
+        <v>1.195360168040731</v>
       </c>
       <c r="O16">
-        <v>1.000421662043655</v>
+        <v>1.25184007314041</v>
       </c>
       <c r="P16">
-        <v>0.9998510541162249</v>
+        <v>1.105901856462788</v>
       </c>
       <c r="Q16">
-        <v>0.9998510541162249</v>
+        <v>1.105901856462788</v>
       </c>
       <c r="R16">
-        <v>0.9995191196863802</v>
+        <v>1.061172700673817</v>
       </c>
       <c r="S16">
-        <v>0.9995191196863802</v>
+        <v>1.061172700673817</v>
       </c>
       <c r="T16">
-        <v>1.000158826006158</v>
+        <v>0.9976332673847393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001038239787398</v>
+        <v>0.8634903962225433</v>
       </c>
       <c r="D17">
-        <v>1.002282218877807</v>
+        <v>0.9150508058109137</v>
       </c>
       <c r="E17">
-        <v>0.9991188360249755</v>
+        <v>1.299021241432306</v>
       </c>
       <c r="F17">
-        <v>1.001038239787398</v>
+        <v>0.5925986110181714</v>
       </c>
       <c r="G17">
-        <v>0.996984826140865</v>
+        <v>1.497646049075766</v>
       </c>
       <c r="H17">
-        <v>1.00134665013841</v>
+        <v>0.9150508058109137</v>
       </c>
       <c r="I17">
-        <v>0.9991881495454129</v>
+        <v>0.8467370886114091</v>
       </c>
       <c r="J17">
-        <v>1.002282218877807</v>
+        <v>1.497646049075766</v>
       </c>
       <c r="K17">
-        <v>1.001038239787398</v>
+        <v>0.9150508058109137</v>
       </c>
       <c r="L17">
-        <v>0.9991188360249755</v>
+        <v>0.8467370886114091</v>
       </c>
       <c r="M17">
-        <v>1.000700527451391</v>
+        <v>1.172191568843588</v>
       </c>
       <c r="N17">
-        <v>1.000700527451391</v>
+        <v>1.172191568843588</v>
       </c>
       <c r="O17">
-        <v>1.000915901680397</v>
+        <v>1.21446812637316</v>
       </c>
       <c r="P17">
-        <v>1.00081309823006</v>
+        <v>1.08647798116603</v>
       </c>
       <c r="Q17">
-        <v>1.00081309823006</v>
+        <v>1.086477981166029</v>
       </c>
       <c r="R17">
-        <v>1.000869383619395</v>
+        <v>1.043621187327251</v>
       </c>
       <c r="S17">
-        <v>1.000869383619395</v>
+        <v>1.043621187327251</v>
       </c>
       <c r="T17">
-        <v>0.9999931534191449</v>
+        <v>1.002424032028518</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9959573523253962</v>
+        <v>0.9212667276872418</v>
       </c>
       <c r="D18">
-        <v>1.009187337882349</v>
+        <v>0.8937343551985175</v>
       </c>
       <c r="E18">
-        <v>0.9969223674554341</v>
+        <v>1.16611290637446</v>
       </c>
       <c r="F18">
-        <v>0.9959573523253962</v>
+        <v>0.8408744012814565</v>
       </c>
       <c r="G18">
-        <v>0.9945472980773838</v>
+        <v>1.31430992480836</v>
       </c>
       <c r="H18">
-        <v>1.006446824828841</v>
+        <v>0.8937343551985175</v>
       </c>
       <c r="I18">
-        <v>0.9970657973753239</v>
+        <v>0.934651663641085</v>
       </c>
       <c r="J18">
-        <v>1.009187337882349</v>
+        <v>1.31430992480836</v>
       </c>
       <c r="K18">
-        <v>0.9959573523253962</v>
+        <v>0.8937343551985175</v>
       </c>
       <c r="L18">
-        <v>0.9969223674554341</v>
+        <v>0.934651663641085</v>
       </c>
       <c r="M18">
-        <v>1.003054852668892</v>
+        <v>1.124480794224723</v>
       </c>
       <c r="N18">
-        <v>1.003054852668892</v>
+        <v>1.124480794224723</v>
       </c>
       <c r="O18">
-        <v>1.004185510055541</v>
+        <v>1.138358164941302</v>
       </c>
       <c r="P18">
-        <v>1.00068901922106</v>
+        <v>1.047565314549321</v>
       </c>
       <c r="Q18">
-        <v>1.00068901922106</v>
+        <v>1.047565314549321</v>
       </c>
       <c r="R18">
-        <v>0.999506102497144</v>
+        <v>1.00910757471162</v>
       </c>
       <c r="S18">
-        <v>0.999506102497144</v>
+        <v>1.00910757471162</v>
       </c>
       <c r="T18">
-        <v>1.000021162990788</v>
+        <v>1.01182499649852</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.912829456090216</v>
+      </c>
+      <c r="D19">
+        <v>0.8660782122626194</v>
+      </c>
+      <c r="E19">
+        <v>1.181687690314816</v>
+      </c>
+      <c r="F19">
+        <v>0.8476967018063769</v>
+      </c>
+      <c r="G19">
+        <v>1.34883955207837</v>
+      </c>
+      <c r="H19">
+        <v>0.8660782122626194</v>
+      </c>
+      <c r="I19">
+        <v>0.9346979521714061</v>
+      </c>
+      <c r="J19">
+        <v>1.34883955207837</v>
+      </c>
+      <c r="K19">
+        <v>0.8660782122626194</v>
+      </c>
+      <c r="L19">
+        <v>0.9346979521714061</v>
+      </c>
+      <c r="M19">
+        <v>1.141768752124888</v>
+      </c>
+      <c r="N19">
+        <v>1.141768752124888</v>
+      </c>
+      <c r="O19">
+        <v>1.155075064854864</v>
+      </c>
+      <c r="P19">
+        <v>1.049871905504132</v>
+      </c>
+      <c r="Q19">
+        <v>1.049871905504132</v>
+      </c>
+      <c r="R19">
+        <v>1.003923482193754</v>
+      </c>
+      <c r="S19">
+        <v>1.003923482193754</v>
+      </c>
+      <c r="T19">
+        <v>1.015304927453967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9998967927352802</v>
+      </c>
+      <c r="D20">
+        <v>0.9985233163968464</v>
+      </c>
+      <c r="E20">
+        <v>1.000235140179138</v>
+      </c>
+      <c r="F20">
+        <v>1.001267860773857</v>
+      </c>
+      <c r="G20">
+        <v>1.000797781304614</v>
+      </c>
+      <c r="H20">
+        <v>0.9985233163968464</v>
+      </c>
+      <c r="I20">
+        <v>1.000232064647215</v>
+      </c>
+      <c r="J20">
+        <v>1.000797781304614</v>
+      </c>
+      <c r="K20">
+        <v>0.9985233163968464</v>
+      </c>
+      <c r="L20">
+        <v>1.000232064647215</v>
+      </c>
+      <c r="M20">
+        <v>1.000514922975914</v>
+      </c>
+      <c r="N20">
+        <v>1.000514922975914</v>
+      </c>
+      <c r="O20">
+        <v>1.000421662043655</v>
+      </c>
+      <c r="P20">
+        <v>0.999851054116225</v>
+      </c>
+      <c r="Q20">
+        <v>0.999851054116225</v>
+      </c>
+      <c r="R20">
+        <v>0.9995191196863804</v>
+      </c>
+      <c r="S20">
+        <v>0.9995191196863804</v>
+      </c>
+      <c r="T20">
+        <v>1.000158826006158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9991881495454132</v>
+      </c>
+      <c r="D21">
+        <v>1.001038239787398</v>
+      </c>
+      <c r="E21">
+        <v>1.00134665013841</v>
+      </c>
+      <c r="F21">
+        <v>0.9969848261408647</v>
+      </c>
+      <c r="G21">
+        <v>1.002282218877807</v>
+      </c>
+      <c r="H21">
+        <v>1.001038239787398</v>
+      </c>
+      <c r="I21">
+        <v>0.9991188360249758</v>
+      </c>
+      <c r="J21">
+        <v>1.002282218877807</v>
+      </c>
+      <c r="K21">
+        <v>1.001038239787398</v>
+      </c>
+      <c r="L21">
+        <v>0.9991188360249758</v>
+      </c>
+      <c r="M21">
+        <v>1.000700527451392</v>
+      </c>
+      <c r="N21">
+        <v>1.000700527451392</v>
+      </c>
+      <c r="O21">
+        <v>1.000915901680398</v>
+      </c>
+      <c r="P21">
+        <v>1.00081309823006</v>
+      </c>
+      <c r="Q21">
+        <v>1.00081309823006</v>
+      </c>
+      <c r="R21">
+        <v>1.000869383619395</v>
+      </c>
+      <c r="S21">
+        <v>1.000869383619395</v>
+      </c>
+      <c r="T21">
+        <v>0.9999931534191449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9970657973753239</v>
+      </c>
+      <c r="D22">
+        <v>0.9959573523253963</v>
+      </c>
+      <c r="E22">
+        <v>1.006446824828841</v>
+      </c>
+      <c r="F22">
+        <v>0.9945472980773837</v>
+      </c>
+      <c r="G22">
+        <v>1.00918733788235</v>
+      </c>
+      <c r="H22">
+        <v>0.9959573523253963</v>
+      </c>
+      <c r="I22">
+        <v>0.9969223674554341</v>
+      </c>
+      <c r="J22">
+        <v>1.00918733788235</v>
+      </c>
+      <c r="K22">
+        <v>0.9959573523253963</v>
+      </c>
+      <c r="L22">
+        <v>0.9969223674554341</v>
+      </c>
+      <c r="M22">
+        <v>1.003054852668892</v>
+      </c>
+      <c r="N22">
+        <v>1.003054852668892</v>
+      </c>
+      <c r="O22">
+        <v>1.004185510055542</v>
+      </c>
+      <c r="P22">
+        <v>1.00068901922106</v>
+      </c>
+      <c r="Q22">
+        <v>1.00068901922106</v>
+      </c>
+      <c r="R22">
+        <v>0.9995061024971441</v>
+      </c>
+      <c r="S22">
+        <v>0.9995061024971441</v>
+      </c>
+      <c r="T22">
+        <v>1.000021162990788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9941598240573255</v>
+      </c>
+      <c r="D23">
         <v>0.9839409849654888</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.015556466927989</v>
+      </c>
+      <c r="F23">
+        <v>0.9891628385452954</v>
+      </c>
+      <c r="G23">
         <v>1.027243123388855</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9839409849654888</v>
+      </c>
+      <c r="I23">
         <v>0.9939691789527721</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>1.027243123388855</v>
+      </c>
+      <c r="K23">
         <v>0.9839409849654888</v>
       </c>
-      <c r="G19">
-        <v>0.9891628385452954</v>
-      </c>
-      <c r="H19">
-        <v>1.015556466927989</v>
-      </c>
-      <c r="I19">
-        <v>0.9941598240573255</v>
-      </c>
-      <c r="J19">
-        <v>1.027243123388855</v>
-      </c>
-      <c r="K19">
-        <v>0.9839409849654888</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9939691789527721</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.010606151170814</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.010606151170814</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.012256256423206</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001717762435705</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001717762435705</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9972735680681513</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9972735680681513</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000672069472955</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9915131038811706</v>
+        <v>0.9082055507276665</v>
       </c>
       <c r="D3">
-        <v>0.997042416162736</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="E3">
-        <v>1.018724109637097</v>
+        <v>1.192978757567722</v>
       </c>
       <c r="F3">
-        <v>0.9720790934838743</v>
+        <v>0.8184661270406317</v>
       </c>
       <c r="G3">
-        <v>1.029353585538342</v>
+        <v>1.361864915276078</v>
       </c>
       <c r="H3">
-        <v>0.997042416162736</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="I3">
-        <v>0.9895912582429734</v>
+        <v>0.923721825273775</v>
       </c>
       <c r="J3">
-        <v>1.029353585538342</v>
+        <v>1.361864915276078</v>
       </c>
       <c r="K3">
-        <v>0.997042416162736</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="L3">
-        <v>0.9895912582429734</v>
+        <v>0.923721825273775</v>
       </c>
       <c r="M3">
-        <v>1.009472421890658</v>
+        <v>1.142793370274927</v>
       </c>
       <c r="N3">
-        <v>1.009472421890658</v>
+        <v>1.142793370274927</v>
       </c>
       <c r="O3">
-        <v>1.012556317806138</v>
+        <v>1.159521832705859</v>
       </c>
       <c r="P3">
-        <v>1.005329086648017</v>
+        <v>1.05381307897387</v>
       </c>
       <c r="Q3">
-        <v>1.005329086648017</v>
+        <v>1.05381307897387</v>
       </c>
       <c r="R3">
-        <v>1.003257419026697</v>
+        <v>1.009322933323342</v>
       </c>
       <c r="S3">
-        <v>1.003257419026697</v>
+        <v>1.009322933323342</v>
       </c>
       <c r="T3">
-        <v>0.999717261157699</v>
+        <v>1.013514945376272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9836292319781862</v>
+        <v>0.9151399326416301</v>
       </c>
       <c r="D4">
-        <v>0.9944260273942619</v>
+        <v>0.8830210820726785</v>
       </c>
       <c r="E4">
-        <v>1.036139782684184</v>
+        <v>1.17893969269307</v>
       </c>
       <c r="F4">
-        <v>0.9459945826159266</v>
+        <v>0.8318860695820361</v>
       </c>
       <c r="G4">
-        <v>1.056636630990185</v>
+        <v>1.337113044705921</v>
       </c>
       <c r="H4">
-        <v>0.9944260273942619</v>
+        <v>0.8830210820726785</v>
       </c>
       <c r="I4">
-        <v>0.9798867912512477</v>
+        <v>0.9302490456093895</v>
       </c>
       <c r="J4">
-        <v>1.056636630990185</v>
+        <v>1.337113044705921</v>
       </c>
       <c r="K4">
-        <v>0.9944260273942619</v>
+        <v>0.8830210820726785</v>
       </c>
       <c r="L4">
-        <v>0.9798867912512477</v>
+        <v>0.9302490456093895</v>
       </c>
       <c r="M4">
-        <v>1.018261711120716</v>
+        <v>1.133681045157655</v>
       </c>
       <c r="N4">
-        <v>1.018261711120716</v>
+        <v>1.133681045157655</v>
       </c>
       <c r="O4">
-        <v>1.024221068308539</v>
+        <v>1.148767261002794</v>
       </c>
       <c r="P4">
-        <v>1.010316483211898</v>
+        <v>1.05012772412933</v>
       </c>
       <c r="Q4">
-        <v>1.010316483211898</v>
+        <v>1.05012772412933</v>
       </c>
       <c r="R4">
-        <v>1.006343869257489</v>
+        <v>1.008351063615167</v>
       </c>
       <c r="S4">
-        <v>1.006343869257489</v>
+        <v>1.008351063615167</v>
       </c>
       <c r="T4">
-        <v>0.9994521744856653</v>
+        <v>1.012724811217454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9685254604680354</v>
+        <v>0.8950493343665765</v>
       </c>
       <c r="D5">
-        <v>0.9882046152335359</v>
+        <v>0.8630773671536389</v>
       </c>
       <c r="E5">
-        <v>1.069296052399314</v>
+        <v>1.219446266681939</v>
       </c>
       <c r="F5">
-        <v>0.8977306797251826</v>
+        <v>0.7927250634716982</v>
       </c>
       <c r="G5">
-        <v>1.108591297276722</v>
+        <v>1.408716292344205</v>
       </c>
       <c r="H5">
-        <v>0.9882046152335359</v>
+        <v>0.8630773671536389</v>
       </c>
       <c r="I5">
-        <v>0.9616575607585645</v>
+        <v>0.9111326157681938</v>
       </c>
       <c r="J5">
-        <v>1.108591297276722</v>
+        <v>1.408716292344205</v>
       </c>
       <c r="K5">
-        <v>0.9882046152335359</v>
+        <v>0.8630773671536389</v>
       </c>
       <c r="L5">
-        <v>0.9616575607585645</v>
+        <v>0.9111326157681938</v>
       </c>
       <c r="M5">
-        <v>1.035124429017643</v>
+        <v>1.159924454056199</v>
       </c>
       <c r="N5">
-        <v>1.035124429017643</v>
+        <v>1.159924454056199</v>
       </c>
       <c r="O5">
-        <v>1.046514970144867</v>
+        <v>1.179765058264779</v>
       </c>
       <c r="P5">
-        <v>1.019484491089607</v>
+        <v>1.060975425088679</v>
       </c>
       <c r="Q5">
-        <v>1.019484491089607</v>
+        <v>1.060975425088679</v>
       </c>
       <c r="R5">
-        <v>1.011664522125589</v>
+        <v>1.011500910604919</v>
       </c>
       <c r="S5">
-        <v>1.011664522125589</v>
+        <v>1.011500910604919</v>
       </c>
       <c r="T5">
-        <v>0.9990009443102257</v>
+        <v>1.015024489964375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9533848858996496</v>
+        <v>0.8827807817613624</v>
       </c>
       <c r="D6">
-        <v>0.9828997828081983</v>
+        <v>0.8521467628409088</v>
       </c>
       <c r="E6">
-        <v>1.102391258570157</v>
+        <v>1.243927956647728</v>
       </c>
       <c r="F6">
-        <v>0.8499833282888689</v>
+        <v>0.7683872945874994</v>
       </c>
       <c r="G6">
-        <v>1.154322128496853</v>
+        <v>1.452276821257954</v>
       </c>
       <c r="H6">
-        <v>0.9828997828081983</v>
+        <v>0.8521467628409088</v>
       </c>
       <c r="I6">
-        <v>0.9422238534981207</v>
+        <v>0.899148225965909</v>
       </c>
       <c r="J6">
-        <v>1.154322128496853</v>
+        <v>1.452276821257954</v>
       </c>
       <c r="K6">
-        <v>0.9828997828081983</v>
+        <v>0.8521467628409088</v>
       </c>
       <c r="L6">
-        <v>0.9422238534981207</v>
+        <v>0.899148225965909</v>
       </c>
       <c r="M6">
-        <v>1.048272990997487</v>
+        <v>1.175712523611932</v>
       </c>
       <c r="N6">
-        <v>1.048272990997487</v>
+        <v>1.175712523611932</v>
       </c>
       <c r="O6">
-        <v>1.06631241352171</v>
+        <v>1.198451001290531</v>
       </c>
       <c r="P6">
-        <v>1.026481921601057</v>
+        <v>1.067857270021591</v>
       </c>
       <c r="Q6">
-        <v>1.026481921601057</v>
+        <v>1.067857270021591</v>
       </c>
       <c r="R6">
-        <v>1.015586386902843</v>
+        <v>1.01392964322642</v>
       </c>
       <c r="S6">
-        <v>1.015586386902843</v>
+        <v>1.01392964322642</v>
       </c>
       <c r="T6">
-        <v>0.9975342062603079</v>
+        <v>1.016444640510227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993893400585304</v>
+        <v>1.134171541381253</v>
       </c>
       <c r="D7">
-        <v>0.9994337321505062</v>
+        <v>1.19185325008376</v>
       </c>
       <c r="E7">
-        <v>1.001199365125403</v>
+        <v>0.6734974301734451</v>
       </c>
       <c r="F7">
-        <v>0.9988103506203301</v>
+        <v>1.511528112644154</v>
       </c>
       <c r="G7">
-        <v>1.002289901862889</v>
+        <v>0.43965164243778</v>
       </c>
       <c r="H7">
-        <v>0.9994337321505062</v>
+        <v>1.19185325008376</v>
       </c>
       <c r="I7">
-        <v>0.9994457313396182</v>
+        <v>1.07722026897961</v>
       </c>
       <c r="J7">
-        <v>1.002289901862889</v>
+        <v>0.43965164243778</v>
       </c>
       <c r="K7">
-        <v>0.9994337321505062</v>
+        <v>1.19185325008376</v>
       </c>
       <c r="L7">
-        <v>0.9994457313396182</v>
+        <v>1.07722026897961</v>
       </c>
       <c r="M7">
-        <v>1.000867816601254</v>
+        <v>0.7584359557086948</v>
       </c>
       <c r="N7">
-        <v>1.000867816601254</v>
+        <v>0.7584359557086948</v>
       </c>
       <c r="O7">
-        <v>1.00097833277597</v>
+        <v>0.7301231138636116</v>
       </c>
       <c r="P7">
-        <v>1.000389788451005</v>
+        <v>0.9029083871670497</v>
       </c>
       <c r="Q7">
-        <v>1.000389788451005</v>
+        <v>0.9029083871670497</v>
       </c>
       <c r="R7">
-        <v>1.00015077437588</v>
+        <v>0.9751446028962272</v>
       </c>
       <c r="S7">
-        <v>1.00015077437588</v>
+        <v>0.9751446028962272</v>
       </c>
       <c r="T7">
-        <v>1.000094736859546</v>
+        <v>1.004653707616667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985540343125299</v>
+        <v>1.131680942882218</v>
       </c>
       <c r="D8">
-        <v>0.9993816454619487</v>
+        <v>1.192291589991047</v>
       </c>
       <c r="E8">
-        <v>1.002673884918088</v>
+        <v>0.6781631208654123</v>
       </c>
       <c r="F8">
-        <v>0.9971571993390932</v>
+        <v>1.504292497166265</v>
       </c>
       <c r="G8">
-        <v>1.005163739904502</v>
+        <v>0.44873830086442</v>
       </c>
       <c r="H8">
-        <v>0.9993816454619487</v>
+        <v>1.192291589991047</v>
       </c>
       <c r="I8">
-        <v>0.9985007326163237</v>
+        <v>1.074270227139526</v>
       </c>
       <c r="J8">
-        <v>1.005163739904502</v>
+        <v>0.44873830086442</v>
       </c>
       <c r="K8">
-        <v>0.9993816454619487</v>
+        <v>1.192291589991047</v>
       </c>
       <c r="L8">
-        <v>0.9985007326163237</v>
+        <v>1.074270227139526</v>
       </c>
       <c r="M8">
-        <v>1.001832236260413</v>
+        <v>0.761504264001973</v>
       </c>
       <c r="N8">
-        <v>1.001832236260413</v>
+        <v>0.761504264001973</v>
       </c>
       <c r="O8">
-        <v>1.002112785812971</v>
+        <v>0.7337238829564527</v>
       </c>
       <c r="P8">
-        <v>1.001015372660925</v>
+        <v>0.9051000393316643</v>
       </c>
       <c r="Q8">
-        <v>1.001015372660925</v>
+        <v>0.9051000393316643</v>
       </c>
       <c r="R8">
-        <v>1.000606940861181</v>
+        <v>0.9768979269965099</v>
       </c>
       <c r="S8">
-        <v>1.000606940861181</v>
+        <v>0.9768979269965099</v>
       </c>
       <c r="T8">
-        <v>1.000238539425414</v>
+        <v>1.004906113151481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9981742060467709</v>
+        <v>1.129357722644409</v>
       </c>
       <c r="D9">
-        <v>1.000208210202101</v>
+        <v>1.189220184640543</v>
       </c>
       <c r="E9">
-        <v>1.003438761824486</v>
+        <v>0.6826695082766605</v>
       </c>
       <c r="F9">
-        <v>0.9951189135733662</v>
+        <v>1.500004338929178</v>
       </c>
       <c r="G9">
-        <v>1.006723809707506</v>
+        <v>0.4586567361312723</v>
       </c>
       <c r="H9">
-        <v>1.000208210202101</v>
+        <v>1.189220184640543</v>
       </c>
       <c r="I9">
-        <v>0.9976886989902576</v>
+        <v>1.072648151503543</v>
       </c>
       <c r="J9">
-        <v>1.006723809707506</v>
+        <v>0.4586567361312723</v>
       </c>
       <c r="K9">
-        <v>1.000208210202101</v>
+        <v>1.189220184640543</v>
       </c>
       <c r="L9">
-        <v>0.9976886989902576</v>
+        <v>1.072648151503543</v>
       </c>
       <c r="M9">
-        <v>1.002206254348882</v>
+        <v>0.7656524438174075</v>
       </c>
       <c r="N9">
-        <v>1.002206254348882</v>
+        <v>0.7656524438174075</v>
       </c>
       <c r="O9">
-        <v>1.002617090174083</v>
+        <v>0.7379914653038252</v>
       </c>
       <c r="P9">
-        <v>1.001540239633288</v>
+        <v>0.9068416907584526</v>
       </c>
       <c r="Q9">
-        <v>1.001540239633288</v>
+        <v>0.9068416907584526</v>
       </c>
       <c r="R9">
-        <v>1.001207232275491</v>
+        <v>0.977436314228975</v>
       </c>
       <c r="S9">
-        <v>1.001207232275491</v>
+        <v>0.977436314228975</v>
       </c>
       <c r="T9">
-        <v>1.000225433390748</v>
+        <v>1.005426107020934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9959208182557111</v>
+        <v>1.125689254205704</v>
       </c>
       <c r="D10">
-        <v>0.9989760708699846</v>
+        <v>1.203696211896686</v>
       </c>
       <c r="E10">
-        <v>1.007723736617534</v>
+        <v>0.687106640416531</v>
       </c>
       <c r="F10">
-        <v>0.990377384221969</v>
+        <v>1.482304673715091</v>
       </c>
       <c r="G10">
-        <v>1.014837372132853</v>
+        <v>0.4716786142139661</v>
       </c>
       <c r="H10">
-        <v>0.9989760708699846</v>
+        <v>1.203696211896686</v>
       </c>
       <c r="I10">
-        <v>0.9954126664810458</v>
+        <v>1.064577261256709</v>
       </c>
       <c r="J10">
-        <v>1.014837372132853</v>
+        <v>0.4716786142139661</v>
       </c>
       <c r="K10">
-        <v>0.9989760708699846</v>
+        <v>1.203696211896686</v>
       </c>
       <c r="L10">
-        <v>0.9954126664810458</v>
+        <v>1.064577261256709</v>
       </c>
       <c r="M10">
-        <v>1.005125019306949</v>
+        <v>0.7681279377353375</v>
       </c>
       <c r="N10">
-        <v>1.005125019306949</v>
+        <v>0.7681279377353375</v>
       </c>
       <c r="O10">
-        <v>1.005991258410478</v>
+        <v>0.7411208386290687</v>
       </c>
       <c r="P10">
-        <v>1.003075369827961</v>
+        <v>0.913317362455787</v>
       </c>
       <c r="Q10">
-        <v>1.003075369827961</v>
+        <v>0.913317362455787</v>
       </c>
       <c r="R10">
-        <v>1.002050545088467</v>
+        <v>0.9859120748160117</v>
       </c>
       <c r="S10">
-        <v>1.002050545088467</v>
+        <v>0.9859120748160117</v>
       </c>
       <c r="T10">
-        <v>1.000541341429849</v>
+        <v>1.005842109284114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9933677357828513</v>
+        <v>0.991752084836559</v>
       </c>
       <c r="D11">
-        <v>1.002461628237658</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="E11">
-        <v>1.012210902602174</v>
+        <v>1.018899583511139</v>
       </c>
       <c r="F11">
-        <v>0.9824003052210518</v>
+        <v>0.9696519811559705</v>
       </c>
       <c r="G11">
-        <v>1.022714826125585</v>
+        <v>1.027865337090444</v>
       </c>
       <c r="H11">
-        <v>1.002461628237658</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="I11">
-        <v>0.9910108347110824</v>
+        <v>0.9886510237946938</v>
       </c>
       <c r="J11">
-        <v>1.022714826125585</v>
+        <v>1.027865337090444</v>
       </c>
       <c r="K11">
-        <v>1.002461628237658</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="L11">
-        <v>0.9910108347110824</v>
+        <v>0.9886510237946938</v>
       </c>
       <c r="M11">
-        <v>1.006862830418334</v>
+        <v>1.008258180442569</v>
       </c>
       <c r="N11">
-        <v>1.006862830418334</v>
+        <v>1.008258180442569</v>
       </c>
       <c r="O11">
-        <v>1.00864552114628</v>
+        <v>1.011805314798759</v>
       </c>
       <c r="P11">
-        <v>1.005395763024775</v>
+        <v>1.005135349050687</v>
       </c>
       <c r="Q11">
-        <v>1.005395763024775</v>
+        <v>1.005135349050687</v>
       </c>
       <c r="R11">
-        <v>1.004662229327996</v>
+        <v>1.003573933354746</v>
       </c>
       <c r="S11">
-        <v>1.004662229327996</v>
+        <v>1.003573933354746</v>
       </c>
       <c r="T11">
-        <v>1.000694372113401</v>
+        <v>0.9992849494426216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.054856370919584</v>
+        <v>0.9965370774451892</v>
       </c>
       <c r="D12">
-        <v>1.403528402389452</v>
+        <v>0.9994147792563534</v>
       </c>
       <c r="E12">
-        <v>0.9214158108128403</v>
+        <v>1.007322302270912</v>
       </c>
       <c r="F12">
-        <v>0.6690815528534579</v>
+        <v>0.9895222213381792</v>
       </c>
       <c r="G12">
-        <v>0.6635768923684404</v>
+        <v>1.012015023292512</v>
       </c>
       <c r="H12">
-        <v>1.403528402389452</v>
+        <v>0.9994147792563534</v>
       </c>
       <c r="I12">
-        <v>0.9124005190079704</v>
+        <v>0.9953789355898357</v>
       </c>
       <c r="J12">
-        <v>0.6635768923684404</v>
+        <v>1.012015023292512</v>
       </c>
       <c r="K12">
-        <v>1.403528402389452</v>
+        <v>0.9994147792563534</v>
       </c>
       <c r="L12">
-        <v>0.9124005190079704</v>
+        <v>0.9953789355898357</v>
       </c>
       <c r="M12">
-        <v>0.7879887056882053</v>
+        <v>1.003696979441174</v>
       </c>
       <c r="N12">
-        <v>0.7879887056882053</v>
+        <v>1.003696979441174</v>
       </c>
       <c r="O12">
-        <v>0.8324644073964169</v>
+        <v>1.00490542038442</v>
       </c>
       <c r="P12">
-        <v>0.9931686045886208</v>
+        <v>1.002269579379567</v>
       </c>
       <c r="Q12">
-        <v>0.9931686045886209</v>
+        <v>1.002269579379567</v>
       </c>
       <c r="R12">
-        <v>1.095758554038829</v>
+        <v>1.001555879348764</v>
       </c>
       <c r="S12">
-        <v>1.095758554038829</v>
+        <v>1.001555879348764</v>
       </c>
       <c r="T12">
-        <v>0.9374765913919575</v>
+        <v>1.00003172319883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.996385589877836</v>
+        <v>0.9892790808193025</v>
       </c>
       <c r="D13">
-        <v>0.8468081759927384</v>
+        <v>0.9998621728999537</v>
       </c>
       <c r="E13">
-        <v>0.990954488041769</v>
+        <v>1.022631142881576</v>
       </c>
       <c r="F13">
-        <v>1.194609717712538</v>
+        <v>0.9652404894999156</v>
       </c>
       <c r="G13">
-        <v>1.056037866762896</v>
+        <v>1.039329581961809</v>
       </c>
       <c r="H13">
-        <v>0.8468081759927384</v>
+        <v>0.9998621728999537</v>
       </c>
       <c r="I13">
-        <v>1.056712734359743</v>
+        <v>0.9844930541047308</v>
       </c>
       <c r="J13">
-        <v>1.056037866762896</v>
+        <v>1.039329581961809</v>
       </c>
       <c r="K13">
-        <v>0.8468081759927384</v>
+        <v>0.9998621728999537</v>
       </c>
       <c r="L13">
-        <v>1.056712734359743</v>
+        <v>0.9844930541047308</v>
       </c>
       <c r="M13">
-        <v>1.056375300561319</v>
+        <v>1.01191131803327</v>
       </c>
       <c r="N13">
-        <v>1.056375300561319</v>
+        <v>1.01191131803327</v>
       </c>
       <c r="O13">
-        <v>1.034568363054803</v>
+        <v>1.015484592982705</v>
       </c>
       <c r="P13">
-        <v>0.9865195923717923</v>
+        <v>1.007894936322165</v>
       </c>
       <c r="Q13">
-        <v>0.9865195923717923</v>
+        <v>1.007894936322165</v>
       </c>
       <c r="R13">
-        <v>0.9515917382770288</v>
+        <v>1.005886745466612</v>
       </c>
       <c r="S13">
-        <v>0.9515917382770288</v>
+        <v>1.005886745466612</v>
       </c>
       <c r="T13">
-        <v>1.023584762124587</v>
+        <v>1.000139253694548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.005043496379461</v>
+        <v>0.9764420867773879</v>
       </c>
       <c r="D14">
-        <v>0.5063513293273471</v>
+        <v>0.9902032293864355</v>
       </c>
       <c r="E14">
-        <v>0.9346638511948349</v>
+        <v>1.052157805078904</v>
       </c>
       <c r="F14">
-        <v>1.70896085236904</v>
+        <v>0.9236323036446449</v>
       </c>
       <c r="G14">
-        <v>1.133231073840437</v>
+        <v>1.08287020529615</v>
       </c>
       <c r="H14">
-        <v>0.5063513293273471</v>
+        <v>0.9902032293864355</v>
       </c>
       <c r="I14">
-        <v>1.205819316301074</v>
+        <v>0.9714578681197827</v>
       </c>
       <c r="J14">
-        <v>1.133231073840437</v>
+        <v>1.08287020529615</v>
       </c>
       <c r="K14">
-        <v>0.5063513293273471</v>
+        <v>0.9902032293864355</v>
       </c>
       <c r="L14">
-        <v>1.205819316301074</v>
+        <v>0.9714578681197827</v>
       </c>
       <c r="M14">
-        <v>1.169525195070755</v>
+        <v>1.027164036707966</v>
       </c>
       <c r="N14">
-        <v>1.169525195070755</v>
+        <v>1.027164036707966</v>
       </c>
       <c r="O14">
-        <v>1.091238080445448</v>
+        <v>1.035495292831612</v>
       </c>
       <c r="P14">
-        <v>0.9484672398229527</v>
+        <v>1.014843767600789</v>
       </c>
       <c r="Q14">
-        <v>0.9484672398229526</v>
+        <v>1.01484376760079</v>
       </c>
       <c r="R14">
-        <v>0.8379382621990512</v>
+        <v>1.008683633047201</v>
       </c>
       <c r="S14">
-        <v>0.8379382621990512</v>
+        <v>1.008683633047201</v>
       </c>
       <c r="T14">
-        <v>1.082344986568699</v>
+        <v>0.9994605830505509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.048364768093853</v>
+        <v>0.9915131038811706</v>
       </c>
       <c r="D15">
-        <v>1.231506167274014</v>
+        <v>0.997042416162736</v>
       </c>
       <c r="E15">
-        <v>0.9330540408966668</v>
+        <v>1.018724109637097</v>
       </c>
       <c r="F15">
-        <v>0.7342906767667204</v>
+        <v>0.9720790934838743</v>
       </c>
       <c r="G15">
-        <v>0.8684645401865594</v>
+        <v>1.029353585538342</v>
       </c>
       <c r="H15">
-        <v>1.231506167274014</v>
+        <v>0.997042416162736</v>
       </c>
       <c r="I15">
-        <v>0.9700202581814543</v>
+        <v>0.9895912582429734</v>
       </c>
       <c r="J15">
-        <v>0.8684645401865594</v>
+        <v>1.029353585538342</v>
       </c>
       <c r="K15">
-        <v>1.231506167274014</v>
+        <v>0.997042416162736</v>
       </c>
       <c r="L15">
-        <v>0.9700202581814543</v>
+        <v>0.9895912582429734</v>
       </c>
       <c r="M15">
-        <v>0.9192423991840069</v>
+        <v>1.009472421890658</v>
       </c>
       <c r="N15">
-        <v>0.9192423991840069</v>
+        <v>1.009472421890658</v>
       </c>
       <c r="O15">
-        <v>0.9238462797548935</v>
+        <v>1.012556317806138</v>
       </c>
       <c r="P15">
-        <v>1.023330321880676</v>
+        <v>1.005329086648017</v>
       </c>
       <c r="Q15">
-        <v>1.023330321880676</v>
+        <v>1.005329086648017</v>
       </c>
       <c r="R15">
-        <v>1.07537428322901</v>
+        <v>1.003257419026697</v>
       </c>
       <c r="S15">
-        <v>1.07537428322901</v>
+        <v>1.003257419026697</v>
       </c>
       <c r="T15">
-        <v>0.9642834085665445</v>
+        <v>0.999717261157699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8348978810984398</v>
+        <v>0.9836292319781862</v>
       </c>
       <c r="D16">
-        <v>0.9269852333069023</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="E16">
-        <v>1.364799883339767</v>
+        <v>1.036139782684184</v>
       </c>
       <c r="F16">
-        <v>0.468396270481866</v>
+        <v>0.9459945826159266</v>
       </c>
       <c r="G16">
-        <v>1.587994818637111</v>
+        <v>1.056636630990185</v>
       </c>
       <c r="H16">
-        <v>0.9269852333069023</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="I16">
-        <v>0.8027255174443521</v>
+        <v>0.9798867912512477</v>
       </c>
       <c r="J16">
-        <v>1.587994818637111</v>
+        <v>1.056636630990185</v>
       </c>
       <c r="K16">
-        <v>0.9269852333069023</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="L16">
-        <v>0.8027255174443521</v>
+        <v>0.9798867912512477</v>
       </c>
       <c r="M16">
-        <v>1.195360168040731</v>
+        <v>1.018261711120716</v>
       </c>
       <c r="N16">
-        <v>1.195360168040731</v>
+        <v>1.018261711120716</v>
       </c>
       <c r="O16">
-        <v>1.25184007314041</v>
+        <v>1.024221068308539</v>
       </c>
       <c r="P16">
-        <v>1.105901856462788</v>
+        <v>1.010316483211898</v>
       </c>
       <c r="Q16">
-        <v>1.105901856462788</v>
+        <v>1.010316483211898</v>
       </c>
       <c r="R16">
-        <v>1.061172700673817</v>
+        <v>1.006343869257489</v>
       </c>
       <c r="S16">
-        <v>1.061172700673817</v>
+        <v>1.006343869257489</v>
       </c>
       <c r="T16">
-        <v>0.9976332673847393</v>
+        <v>0.9994521744856653</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8634903962225433</v>
+        <v>0.9685254604680354</v>
       </c>
       <c r="D17">
-        <v>0.9150508058109137</v>
+        <v>0.9882046152335359</v>
       </c>
       <c r="E17">
-        <v>1.299021241432306</v>
+        <v>1.069296052399314</v>
       </c>
       <c r="F17">
-        <v>0.5925986110181714</v>
+        <v>0.8977306797251826</v>
       </c>
       <c r="G17">
-        <v>1.497646049075766</v>
+        <v>1.108591297276722</v>
       </c>
       <c r="H17">
-        <v>0.9150508058109137</v>
+        <v>0.9882046152335359</v>
       </c>
       <c r="I17">
-        <v>0.8467370886114091</v>
+        <v>0.9616575607585645</v>
       </c>
       <c r="J17">
-        <v>1.497646049075766</v>
+        <v>1.108591297276722</v>
       </c>
       <c r="K17">
-        <v>0.9150508058109137</v>
+        <v>0.9882046152335359</v>
       </c>
       <c r="L17">
-        <v>0.8467370886114091</v>
+        <v>0.9616575607585645</v>
       </c>
       <c r="M17">
-        <v>1.172191568843588</v>
+        <v>1.035124429017643</v>
       </c>
       <c r="N17">
-        <v>1.172191568843588</v>
+        <v>1.035124429017643</v>
       </c>
       <c r="O17">
-        <v>1.21446812637316</v>
+        <v>1.046514970144867</v>
       </c>
       <c r="P17">
-        <v>1.08647798116603</v>
+        <v>1.019484491089607</v>
       </c>
       <c r="Q17">
-        <v>1.086477981166029</v>
+        <v>1.019484491089607</v>
       </c>
       <c r="R17">
-        <v>1.043621187327251</v>
+        <v>1.011664522125589</v>
       </c>
       <c r="S17">
-        <v>1.043621187327251</v>
+        <v>1.011664522125589</v>
       </c>
       <c r="T17">
-        <v>1.002424032028518</v>
+        <v>0.9990009443102257</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9212667276872418</v>
+        <v>0.9533848858996496</v>
       </c>
       <c r="D18">
-        <v>0.8937343551985175</v>
+        <v>0.9828997828081983</v>
       </c>
       <c r="E18">
-        <v>1.16611290637446</v>
+        <v>1.102391258570157</v>
       </c>
       <c r="F18">
-        <v>0.8408744012814565</v>
+        <v>0.8499833282888689</v>
       </c>
       <c r="G18">
-        <v>1.31430992480836</v>
+        <v>1.154322128496853</v>
       </c>
       <c r="H18">
-        <v>0.8937343551985175</v>
+        <v>0.9828997828081983</v>
       </c>
       <c r="I18">
-        <v>0.934651663641085</v>
+        <v>0.9422238534981207</v>
       </c>
       <c r="J18">
-        <v>1.31430992480836</v>
+        <v>1.154322128496853</v>
       </c>
       <c r="K18">
-        <v>0.8937343551985175</v>
+        <v>0.9828997828081983</v>
       </c>
       <c r="L18">
-        <v>0.934651663641085</v>
+        <v>0.9422238534981207</v>
       </c>
       <c r="M18">
-        <v>1.124480794224723</v>
+        <v>1.048272990997487</v>
       </c>
       <c r="N18">
-        <v>1.124480794224723</v>
+        <v>1.048272990997487</v>
       </c>
       <c r="O18">
-        <v>1.138358164941302</v>
+        <v>1.06631241352171</v>
       </c>
       <c r="P18">
-        <v>1.047565314549321</v>
+        <v>1.026481921601057</v>
       </c>
       <c r="Q18">
-        <v>1.047565314549321</v>
+        <v>1.026481921601057</v>
       </c>
       <c r="R18">
-        <v>1.00910757471162</v>
+        <v>1.015586386902843</v>
       </c>
       <c r="S18">
-        <v>1.00910757471162</v>
+        <v>1.015586386902843</v>
       </c>
       <c r="T18">
-        <v>1.01182499649852</v>
+        <v>0.9975342062603079</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.912829456090216</v>
+        <v>0.9993893400585304</v>
       </c>
       <c r="D19">
-        <v>0.8660782122626194</v>
+        <v>0.9994337321505062</v>
       </c>
       <c r="E19">
-        <v>1.181687690314816</v>
+        <v>1.001199365125403</v>
       </c>
       <c r="F19">
-        <v>0.8476967018063769</v>
+        <v>0.9988103506203301</v>
       </c>
       <c r="G19">
-        <v>1.34883955207837</v>
+        <v>1.002289901862889</v>
       </c>
       <c r="H19">
-        <v>0.8660782122626194</v>
+        <v>0.9994337321505062</v>
       </c>
       <c r="I19">
-        <v>0.9346979521714061</v>
+        <v>0.9994457313396182</v>
       </c>
       <c r="J19">
-        <v>1.34883955207837</v>
+        <v>1.002289901862889</v>
       </c>
       <c r="K19">
-        <v>0.8660782122626194</v>
+        <v>0.9994337321505062</v>
       </c>
       <c r="L19">
-        <v>0.9346979521714061</v>
+        <v>0.9994457313396182</v>
       </c>
       <c r="M19">
-        <v>1.141768752124888</v>
+        <v>1.000867816601254</v>
       </c>
       <c r="N19">
-        <v>1.141768752124888</v>
+        <v>1.000867816601254</v>
       </c>
       <c r="O19">
-        <v>1.155075064854864</v>
+        <v>1.00097833277597</v>
       </c>
       <c r="P19">
-        <v>1.049871905504132</v>
+        <v>1.000389788451005</v>
       </c>
       <c r="Q19">
-        <v>1.049871905504132</v>
+        <v>1.000389788451005</v>
       </c>
       <c r="R19">
-        <v>1.003923482193754</v>
+        <v>1.00015077437588</v>
       </c>
       <c r="S19">
-        <v>1.003923482193754</v>
+        <v>1.00015077437588</v>
       </c>
       <c r="T19">
-        <v>1.015304927453967</v>
+        <v>1.000094736859546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9998967927352802</v>
+        <v>0.9985540343125299</v>
       </c>
       <c r="D20">
-        <v>0.9985233163968464</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="E20">
-        <v>1.000235140179138</v>
+        <v>1.002673884918088</v>
       </c>
       <c r="F20">
-        <v>1.001267860773857</v>
+        <v>0.9971571993390932</v>
       </c>
       <c r="G20">
-        <v>1.000797781304614</v>
+        <v>1.005163739904502</v>
       </c>
       <c r="H20">
-        <v>0.9985233163968464</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="I20">
-        <v>1.000232064647215</v>
+        <v>0.9985007326163237</v>
       </c>
       <c r="J20">
-        <v>1.000797781304614</v>
+        <v>1.005163739904502</v>
       </c>
       <c r="K20">
-        <v>0.9985233163968464</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="L20">
-        <v>1.000232064647215</v>
+        <v>0.9985007326163237</v>
       </c>
       <c r="M20">
-        <v>1.000514922975914</v>
+        <v>1.001832236260413</v>
       </c>
       <c r="N20">
-        <v>1.000514922975914</v>
+        <v>1.001832236260413</v>
       </c>
       <c r="O20">
-        <v>1.000421662043655</v>
+        <v>1.002112785812971</v>
       </c>
       <c r="P20">
-        <v>0.999851054116225</v>
+        <v>1.001015372660925</v>
       </c>
       <c r="Q20">
-        <v>0.999851054116225</v>
+        <v>1.001015372660925</v>
       </c>
       <c r="R20">
-        <v>0.9995191196863804</v>
+        <v>1.000606940861181</v>
       </c>
       <c r="S20">
-        <v>0.9995191196863804</v>
+        <v>1.000606940861181</v>
       </c>
       <c r="T20">
-        <v>1.000158826006158</v>
+        <v>1.000238539425414</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9991881495454132</v>
+        <v>0.9981742060467709</v>
       </c>
       <c r="D21">
-        <v>1.001038239787398</v>
+        <v>1.000208210202101</v>
       </c>
       <c r="E21">
-        <v>1.00134665013841</v>
+        <v>1.003438761824486</v>
       </c>
       <c r="F21">
-        <v>0.9969848261408647</v>
+        <v>0.9951189135733662</v>
       </c>
       <c r="G21">
-        <v>1.002282218877807</v>
+        <v>1.006723809707506</v>
       </c>
       <c r="H21">
-        <v>1.001038239787398</v>
+        <v>1.000208210202101</v>
       </c>
       <c r="I21">
-        <v>0.9991188360249758</v>
+        <v>0.9976886989902576</v>
       </c>
       <c r="J21">
-        <v>1.002282218877807</v>
+        <v>1.006723809707506</v>
       </c>
       <c r="K21">
-        <v>1.001038239787398</v>
+        <v>1.000208210202101</v>
       </c>
       <c r="L21">
-        <v>0.9991188360249758</v>
+        <v>0.9976886989902576</v>
       </c>
       <c r="M21">
-        <v>1.000700527451392</v>
+        <v>1.002206254348882</v>
       </c>
       <c r="N21">
-        <v>1.000700527451392</v>
+        <v>1.002206254348882</v>
       </c>
       <c r="O21">
-        <v>1.000915901680398</v>
+        <v>1.002617090174083</v>
       </c>
       <c r="P21">
-        <v>1.00081309823006</v>
+        <v>1.001540239633288</v>
       </c>
       <c r="Q21">
-        <v>1.00081309823006</v>
+        <v>1.001540239633288</v>
       </c>
       <c r="R21">
-        <v>1.000869383619395</v>
+        <v>1.001207232275491</v>
       </c>
       <c r="S21">
-        <v>1.000869383619395</v>
+        <v>1.001207232275491</v>
       </c>
       <c r="T21">
-        <v>0.9999931534191449</v>
+        <v>1.000225433390748</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9970657973753239</v>
+        <v>0.9959208182557111</v>
       </c>
       <c r="D22">
-        <v>0.9959573523253963</v>
+        <v>0.9989760708699846</v>
       </c>
       <c r="E22">
-        <v>1.006446824828841</v>
+        <v>1.007723736617534</v>
       </c>
       <c r="F22">
-        <v>0.9945472980773837</v>
+        <v>0.990377384221969</v>
       </c>
       <c r="G22">
-        <v>1.00918733788235</v>
+        <v>1.014837372132853</v>
       </c>
       <c r="H22">
-        <v>0.9959573523253963</v>
+        <v>0.9989760708699846</v>
       </c>
       <c r="I22">
-        <v>0.9969223674554341</v>
+        <v>0.9954126664810458</v>
       </c>
       <c r="J22">
-        <v>1.00918733788235</v>
+        <v>1.014837372132853</v>
       </c>
       <c r="K22">
-        <v>0.9959573523253963</v>
+        <v>0.9989760708699846</v>
       </c>
       <c r="L22">
-        <v>0.9969223674554341</v>
+        <v>0.9954126664810458</v>
       </c>
       <c r="M22">
-        <v>1.003054852668892</v>
+        <v>1.005125019306949</v>
       </c>
       <c r="N22">
-        <v>1.003054852668892</v>
+        <v>1.005125019306949</v>
       </c>
       <c r="O22">
-        <v>1.004185510055542</v>
+        <v>1.005991258410478</v>
       </c>
       <c r="P22">
-        <v>1.00068901922106</v>
+        <v>1.003075369827961</v>
       </c>
       <c r="Q22">
-        <v>1.00068901922106</v>
+        <v>1.003075369827961</v>
       </c>
       <c r="R22">
-        <v>0.9995061024971441</v>
+        <v>1.002050545088467</v>
       </c>
       <c r="S22">
-        <v>0.9995061024971441</v>
+        <v>1.002050545088467</v>
       </c>
       <c r="T22">
-        <v>1.000021162990788</v>
+        <v>1.000541341429849</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9933677357828513</v>
+      </c>
+      <c r="D23">
+        <v>1.002461628237658</v>
+      </c>
+      <c r="E23">
+        <v>1.012210902602174</v>
+      </c>
+      <c r="F23">
+        <v>0.9824003052210518</v>
+      </c>
+      <c r="G23">
+        <v>1.022714826125585</v>
+      </c>
+      <c r="H23">
+        <v>1.002461628237658</v>
+      </c>
+      <c r="I23">
+        <v>0.9910108347110824</v>
+      </c>
+      <c r="J23">
+        <v>1.022714826125585</v>
+      </c>
+      <c r="K23">
+        <v>1.002461628237658</v>
+      </c>
+      <c r="L23">
+        <v>0.9910108347110824</v>
+      </c>
+      <c r="M23">
+        <v>1.006862830418334</v>
+      </c>
+      <c r="N23">
+        <v>1.006862830418334</v>
+      </c>
+      <c r="O23">
+        <v>1.00864552114628</v>
+      </c>
+      <c r="P23">
+        <v>1.005395763024775</v>
+      </c>
+      <c r="Q23">
+        <v>1.005395763024775</v>
+      </c>
+      <c r="R23">
+        <v>1.004662229327996</v>
+      </c>
+      <c r="S23">
+        <v>1.004662229327996</v>
+      </c>
+      <c r="T23">
+        <v>1.000694372113401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.054856370919584</v>
+      </c>
+      <c r="D24">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="E24">
+        <v>0.9214158108128403</v>
+      </c>
+      <c r="F24">
+        <v>0.6690815528534579</v>
+      </c>
+      <c r="G24">
+        <v>0.6635768923684404</v>
+      </c>
+      <c r="H24">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="I24">
+        <v>0.9124005190079704</v>
+      </c>
+      <c r="J24">
+        <v>0.6635768923684404</v>
+      </c>
+      <c r="K24">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="L24">
+        <v>0.9124005190079704</v>
+      </c>
+      <c r="M24">
+        <v>0.7879887056882053</v>
+      </c>
+      <c r="N24">
+        <v>0.7879887056882053</v>
+      </c>
+      <c r="O24">
+        <v>0.8324644073964169</v>
+      </c>
+      <c r="P24">
+        <v>0.9931686045886208</v>
+      </c>
+      <c r="Q24">
+        <v>0.9931686045886209</v>
+      </c>
+      <c r="R24">
+        <v>1.095758554038829</v>
+      </c>
+      <c r="S24">
+        <v>1.095758554038829</v>
+      </c>
+      <c r="T24">
+        <v>0.9374765913919575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.996385589877836</v>
+      </c>
+      <c r="D25">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="E25">
+        <v>0.990954488041769</v>
+      </c>
+      <c r="F25">
+        <v>1.194609717712538</v>
+      </c>
+      <c r="G25">
+        <v>1.056037866762896</v>
+      </c>
+      <c r="H25">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="I25">
+        <v>1.056712734359743</v>
+      </c>
+      <c r="J25">
+        <v>1.056037866762896</v>
+      </c>
+      <c r="K25">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="L25">
+        <v>1.056712734359743</v>
+      </c>
+      <c r="M25">
+        <v>1.056375300561319</v>
+      </c>
+      <c r="N25">
+        <v>1.056375300561319</v>
+      </c>
+      <c r="O25">
+        <v>1.034568363054803</v>
+      </c>
+      <c r="P25">
+        <v>0.9865195923717923</v>
+      </c>
+      <c r="Q25">
+        <v>0.9865195923717923</v>
+      </c>
+      <c r="R25">
+        <v>0.9515917382770288</v>
+      </c>
+      <c r="S25">
+        <v>0.9515917382770288</v>
+      </c>
+      <c r="T25">
+        <v>1.023584762124587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.005043496379461</v>
+      </c>
+      <c r="D26">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="E26">
+        <v>0.9346638511948349</v>
+      </c>
+      <c r="F26">
+        <v>1.70896085236904</v>
+      </c>
+      <c r="G26">
+        <v>1.133231073840437</v>
+      </c>
+      <c r="H26">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="I26">
+        <v>1.205819316301074</v>
+      </c>
+      <c r="J26">
+        <v>1.133231073840437</v>
+      </c>
+      <c r="K26">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="L26">
+        <v>1.205819316301074</v>
+      </c>
+      <c r="M26">
+        <v>1.169525195070755</v>
+      </c>
+      <c r="N26">
+        <v>1.169525195070755</v>
+      </c>
+      <c r="O26">
+        <v>1.091238080445448</v>
+      </c>
+      <c r="P26">
+        <v>0.9484672398229527</v>
+      </c>
+      <c r="Q26">
+        <v>0.9484672398229526</v>
+      </c>
+      <c r="R26">
+        <v>0.8379382621990512</v>
+      </c>
+      <c r="S26">
+        <v>0.8379382621990512</v>
+      </c>
+      <c r="T26">
+        <v>1.082344986568699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.048364768093853</v>
+      </c>
+      <c r="D27">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="E27">
+        <v>0.9330540408966668</v>
+      </c>
+      <c r="F27">
+        <v>0.7342906767667204</v>
+      </c>
+      <c r="G27">
+        <v>0.8684645401865594</v>
+      </c>
+      <c r="H27">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="I27">
+        <v>0.9700202581814543</v>
+      </c>
+      <c r="J27">
+        <v>0.8684645401865594</v>
+      </c>
+      <c r="K27">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="L27">
+        <v>0.9700202581814543</v>
+      </c>
+      <c r="M27">
+        <v>0.9192423991840069</v>
+      </c>
+      <c r="N27">
+        <v>0.9192423991840069</v>
+      </c>
+      <c r="O27">
+        <v>0.9238462797548935</v>
+      </c>
+      <c r="P27">
+        <v>1.023330321880676</v>
+      </c>
+      <c r="Q27">
+        <v>1.023330321880676</v>
+      </c>
+      <c r="R27">
+        <v>1.07537428322901</v>
+      </c>
+      <c r="S27">
+        <v>1.07537428322901</v>
+      </c>
+      <c r="T27">
+        <v>0.9642834085665445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8348978810984398</v>
+      </c>
+      <c r="D28">
+        <v>0.9269852333069023</v>
+      </c>
+      <c r="E28">
+        <v>1.364799883339767</v>
+      </c>
+      <c r="F28">
+        <v>0.468396270481866</v>
+      </c>
+      <c r="G28">
+        <v>1.587994818637111</v>
+      </c>
+      <c r="H28">
+        <v>0.9269852333069023</v>
+      </c>
+      <c r="I28">
+        <v>0.8027255174443521</v>
+      </c>
+      <c r="J28">
+        <v>1.587994818637111</v>
+      </c>
+      <c r="K28">
+        <v>0.9269852333069023</v>
+      </c>
+      <c r="L28">
+        <v>0.8027255174443521</v>
+      </c>
+      <c r="M28">
+        <v>1.195360168040731</v>
+      </c>
+      <c r="N28">
+        <v>1.195360168040731</v>
+      </c>
+      <c r="O28">
+        <v>1.25184007314041</v>
+      </c>
+      <c r="P28">
+        <v>1.105901856462788</v>
+      </c>
+      <c r="Q28">
+        <v>1.105901856462788</v>
+      </c>
+      <c r="R28">
+        <v>1.061172700673817</v>
+      </c>
+      <c r="S28">
+        <v>1.061172700673817</v>
+      </c>
+      <c r="T28">
+        <v>0.9976332673847393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8634903962225433</v>
+      </c>
+      <c r="D29">
+        <v>0.9150508058109137</v>
+      </c>
+      <c r="E29">
+        <v>1.299021241432306</v>
+      </c>
+      <c r="F29">
+        <v>0.5925986110181714</v>
+      </c>
+      <c r="G29">
+        <v>1.497646049075766</v>
+      </c>
+      <c r="H29">
+        <v>0.9150508058109137</v>
+      </c>
+      <c r="I29">
+        <v>0.8467370886114091</v>
+      </c>
+      <c r="J29">
+        <v>1.497646049075766</v>
+      </c>
+      <c r="K29">
+        <v>0.9150508058109137</v>
+      </c>
+      <c r="L29">
+        <v>0.8467370886114091</v>
+      </c>
+      <c r="M29">
+        <v>1.172191568843588</v>
+      </c>
+      <c r="N29">
+        <v>1.172191568843588</v>
+      </c>
+      <c r="O29">
+        <v>1.21446812637316</v>
+      </c>
+      <c r="P29">
+        <v>1.08647798116603</v>
+      </c>
+      <c r="Q29">
+        <v>1.086477981166029</v>
+      </c>
+      <c r="R29">
+        <v>1.043621187327251</v>
+      </c>
+      <c r="S29">
+        <v>1.043621187327251</v>
+      </c>
+      <c r="T29">
+        <v>1.002424032028518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9212667276872418</v>
+      </c>
+      <c r="D30">
+        <v>0.8937343551985175</v>
+      </c>
+      <c r="E30">
+        <v>1.16611290637446</v>
+      </c>
+      <c r="F30">
+        <v>0.8408744012814565</v>
+      </c>
+      <c r="G30">
+        <v>1.31430992480836</v>
+      </c>
+      <c r="H30">
+        <v>0.8937343551985175</v>
+      </c>
+      <c r="I30">
+        <v>0.934651663641085</v>
+      </c>
+      <c r="J30">
+        <v>1.31430992480836</v>
+      </c>
+      <c r="K30">
+        <v>0.8937343551985175</v>
+      </c>
+      <c r="L30">
+        <v>0.934651663641085</v>
+      </c>
+      <c r="M30">
+        <v>1.124480794224723</v>
+      </c>
+      <c r="N30">
+        <v>1.124480794224723</v>
+      </c>
+      <c r="O30">
+        <v>1.138358164941302</v>
+      </c>
+      <c r="P30">
+        <v>1.047565314549321</v>
+      </c>
+      <c r="Q30">
+        <v>1.047565314549321</v>
+      </c>
+      <c r="R30">
+        <v>1.00910757471162</v>
+      </c>
+      <c r="S30">
+        <v>1.00910757471162</v>
+      </c>
+      <c r="T30">
+        <v>1.01182499649852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.912829456090216</v>
+      </c>
+      <c r="D31">
+        <v>0.8660782122626194</v>
+      </c>
+      <c r="E31">
+        <v>1.181687690314816</v>
+      </c>
+      <c r="F31">
+        <v>0.8476967018063769</v>
+      </c>
+      <c r="G31">
+        <v>1.34883955207837</v>
+      </c>
+      <c r="H31">
+        <v>0.8660782122626194</v>
+      </c>
+      <c r="I31">
+        <v>0.9346979521714061</v>
+      </c>
+      <c r="J31">
+        <v>1.34883955207837</v>
+      </c>
+      <c r="K31">
+        <v>0.8660782122626194</v>
+      </c>
+      <c r="L31">
+        <v>0.9346979521714061</v>
+      </c>
+      <c r="M31">
+        <v>1.141768752124888</v>
+      </c>
+      <c r="N31">
+        <v>1.141768752124888</v>
+      </c>
+      <c r="O31">
+        <v>1.155075064854864</v>
+      </c>
+      <c r="P31">
+        <v>1.049871905504132</v>
+      </c>
+      <c r="Q31">
+        <v>1.049871905504132</v>
+      </c>
+      <c r="R31">
+        <v>1.003923482193754</v>
+      </c>
+      <c r="S31">
+        <v>1.003923482193754</v>
+      </c>
+      <c r="T31">
+        <v>1.015304927453967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.810573397260274</v>
+      </c>
+      <c r="D32">
+        <v>0.9732692501917805</v>
+      </c>
+      <c r="E32">
+        <v>1.416720482602739</v>
+      </c>
+      <c r="F32">
+        <v>0.3419288072931508</v>
+      </c>
+      <c r="G32">
+        <v>1.656428450547946</v>
+      </c>
+      <c r="H32">
+        <v>0.9732692501917805</v>
+      </c>
+      <c r="I32">
+        <v>0.7538242334246578</v>
+      </c>
+      <c r="J32">
+        <v>1.656428450547946</v>
+      </c>
+      <c r="K32">
+        <v>0.9732692501917805</v>
+      </c>
+      <c r="L32">
+        <v>0.7538242334246578</v>
+      </c>
+      <c r="M32">
+        <v>1.205126341986302</v>
+      </c>
+      <c r="N32">
+        <v>1.205126341986302</v>
+      </c>
+      <c r="O32">
+        <v>1.275657722191781</v>
+      </c>
+      <c r="P32">
+        <v>1.127840644721461</v>
+      </c>
+      <c r="Q32">
+        <v>1.127840644721461</v>
+      </c>
+      <c r="R32">
+        <v>1.089197796089041</v>
+      </c>
+      <c r="S32">
+        <v>1.089197796089041</v>
+      </c>
+      <c r="T32">
+        <v>0.9921241035534246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9972905463157895</v>
+      </c>
+      <c r="D33">
+        <v>0.7707098973684211</v>
+      </c>
+      <c r="E33">
+        <v>0.8299944868421053</v>
+      </c>
+      <c r="F33">
+        <v>1.777354282315789</v>
+      </c>
+      <c r="G33">
+        <v>1.244688769789473</v>
+      </c>
+      <c r="H33">
+        <v>0.7707098973684211</v>
+      </c>
+      <c r="I33">
+        <v>1.125876118421053</v>
+      </c>
+      <c r="J33">
+        <v>1.244688769789473</v>
+      </c>
+      <c r="K33">
+        <v>0.7707098973684211</v>
+      </c>
+      <c r="L33">
+        <v>1.125876118421053</v>
+      </c>
+      <c r="M33">
+        <v>1.185282444105263</v>
+      </c>
+      <c r="N33">
+        <v>1.185282444105263</v>
+      </c>
+      <c r="O33">
+        <v>1.066853125017544</v>
+      </c>
+      <c r="P33">
+        <v>1.047091595192982</v>
+      </c>
+      <c r="Q33">
+        <v>1.047091595192982</v>
+      </c>
+      <c r="R33">
+        <v>0.977996170736842</v>
+      </c>
+      <c r="S33">
+        <v>0.977996170736842</v>
+      </c>
+      <c r="T33">
+        <v>1.124319016842105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.080473502105263</v>
+      </c>
+      <c r="D34">
+        <v>1.167429815789474</v>
+      </c>
+      <c r="E34">
+        <v>0.7816177821052632</v>
+      </c>
+      <c r="F34">
+        <v>1.367896982736842</v>
+      </c>
+      <c r="G34">
+        <v>0.6336225186526315</v>
+      </c>
+      <c r="H34">
+        <v>1.167429815789474</v>
+      </c>
+      <c r="I34">
+        <v>1.022271596842105</v>
+      </c>
+      <c r="J34">
+        <v>0.6336225186526315</v>
+      </c>
+      <c r="K34">
+        <v>1.167429815789474</v>
+      </c>
+      <c r="L34">
+        <v>1.022271596842105</v>
+      </c>
+      <c r="M34">
+        <v>0.8279470577473684</v>
+      </c>
+      <c r="N34">
+        <v>0.8279470577473684</v>
+      </c>
+      <c r="O34">
+        <v>0.8125039658666667</v>
+      </c>
+      <c r="P34">
+        <v>0.9411079770947369</v>
+      </c>
+      <c r="Q34">
+        <v>0.9411079770947369</v>
+      </c>
+      <c r="R34">
+        <v>0.9976884367684211</v>
+      </c>
+      <c r="S34">
+        <v>0.9976884367684211</v>
+      </c>
+      <c r="T34">
+        <v>1.00888536637193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6734398901329712</v>
+      </c>
+      <c r="D35">
+        <v>0.5165948920461889</v>
+      </c>
+      <c r="E35">
+        <v>1.670238201248365</v>
+      </c>
+      <c r="F35">
+        <v>0.4453172439371813</v>
+      </c>
+      <c r="G35">
+        <v>2.252649967099699</v>
+      </c>
+      <c r="H35">
+        <v>0.5165948920461889</v>
+      </c>
+      <c r="I35">
+        <v>0.7540469289031674</v>
+      </c>
+      <c r="J35">
+        <v>2.252649967099699</v>
+      </c>
+      <c r="K35">
+        <v>0.5165948920461889</v>
+      </c>
+      <c r="L35">
+        <v>0.7540469289031674</v>
+      </c>
+      <c r="M35">
+        <v>1.503348448001433</v>
+      </c>
+      <c r="N35">
+        <v>1.503348448001433</v>
+      </c>
+      <c r="O35">
+        <v>1.55897836575041</v>
+      </c>
+      <c r="P35">
+        <v>1.174430596016352</v>
+      </c>
+      <c r="Q35">
+        <v>1.174430596016352</v>
+      </c>
+      <c r="R35">
+        <v>1.009971670023811</v>
+      </c>
+      <c r="S35">
+        <v>1.009971670023811</v>
+      </c>
+      <c r="T35">
+        <v>1.052047853894595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9998967927352802</v>
+      </c>
+      <c r="D36">
+        <v>0.9985233163968464</v>
+      </c>
+      <c r="E36">
+        <v>1.000235140179138</v>
+      </c>
+      <c r="F36">
+        <v>1.001267860773857</v>
+      </c>
+      <c r="G36">
+        <v>1.000797781304614</v>
+      </c>
+      <c r="H36">
+        <v>0.9985233163968464</v>
+      </c>
+      <c r="I36">
+        <v>1.000232064647215</v>
+      </c>
+      <c r="J36">
+        <v>1.000797781304614</v>
+      </c>
+      <c r="K36">
+        <v>0.9985233163968464</v>
+      </c>
+      <c r="L36">
+        <v>1.000232064647215</v>
+      </c>
+      <c r="M36">
+        <v>1.000514922975914</v>
+      </c>
+      <c r="N36">
+        <v>1.000514922975914</v>
+      </c>
+      <c r="O36">
+        <v>1.000421662043655</v>
+      </c>
+      <c r="P36">
+        <v>0.999851054116225</v>
+      </c>
+      <c r="Q36">
+        <v>0.999851054116225</v>
+      </c>
+      <c r="R36">
+        <v>0.9995191196863804</v>
+      </c>
+      <c r="S36">
+        <v>0.9995191196863804</v>
+      </c>
+      <c r="T36">
+        <v>1.000158826006158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9991881495454132</v>
+      </c>
+      <c r="D37">
+        <v>1.001038239787398</v>
+      </c>
+      <c r="E37">
+        <v>1.00134665013841</v>
+      </c>
+      <c r="F37">
+        <v>0.9969848261408647</v>
+      </c>
+      <c r="G37">
+        <v>1.002282218877807</v>
+      </c>
+      <c r="H37">
+        <v>1.001038239787398</v>
+      </c>
+      <c r="I37">
+        <v>0.9991188360249758</v>
+      </c>
+      <c r="J37">
+        <v>1.002282218877807</v>
+      </c>
+      <c r="K37">
+        <v>1.001038239787398</v>
+      </c>
+      <c r="L37">
+        <v>0.9991188360249758</v>
+      </c>
+      <c r="M37">
+        <v>1.000700527451392</v>
+      </c>
+      <c r="N37">
+        <v>1.000700527451392</v>
+      </c>
+      <c r="O37">
+        <v>1.000915901680398</v>
+      </c>
+      <c r="P37">
+        <v>1.00081309823006</v>
+      </c>
+      <c r="Q37">
+        <v>1.00081309823006</v>
+      </c>
+      <c r="R37">
+        <v>1.000869383619395</v>
+      </c>
+      <c r="S37">
+        <v>1.000869383619395</v>
+      </c>
+      <c r="T37">
+        <v>0.9999931534191449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9970657973753239</v>
+      </c>
+      <c r="D38">
+        <v>0.9959573523253963</v>
+      </c>
+      <c r="E38">
+        <v>1.006446824828841</v>
+      </c>
+      <c r="F38">
+        <v>0.9945472980773837</v>
+      </c>
+      <c r="G38">
+        <v>1.00918733788235</v>
+      </c>
+      <c r="H38">
+        <v>0.9959573523253963</v>
+      </c>
+      <c r="I38">
+        <v>0.9969223674554341</v>
+      </c>
+      <c r="J38">
+        <v>1.00918733788235</v>
+      </c>
+      <c r="K38">
+        <v>0.9959573523253963</v>
+      </c>
+      <c r="L38">
+        <v>0.9969223674554341</v>
+      </c>
+      <c r="M38">
+        <v>1.003054852668892</v>
+      </c>
+      <c r="N38">
+        <v>1.003054852668892</v>
+      </c>
+      <c r="O38">
+        <v>1.004185510055542</v>
+      </c>
+      <c r="P38">
+        <v>1.00068901922106</v>
+      </c>
+      <c r="Q38">
+        <v>1.00068901922106</v>
+      </c>
+      <c r="R38">
+        <v>0.9995061024971441</v>
+      </c>
+      <c r="S38">
+        <v>0.9995061024971441</v>
+      </c>
+      <c r="T38">
+        <v>1.000021162990788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9941598240573255</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9839409849654888</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.015556466927989</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9891628385452954</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.027243123388855</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9839409849654888</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9939691789527721</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.027243123388855</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9839409849654888</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9939691789527721</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.010606151170814</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.010606151170814</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.012256256423206</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001717762435705</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001717762435705</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9972735680681513</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9972735680681513</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000672069472955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.045852028845077</v>
+      </c>
+      <c r="D40">
+        <v>1.060625766359161</v>
+      </c>
+      <c r="E40">
+        <v>0.8936311605532722</v>
+      </c>
+      <c r="F40">
+        <v>1.122206596945874</v>
+      </c>
+      <c r="G40">
+        <v>0.8506039545739954</v>
+      </c>
+      <c r="H40">
+        <v>1.060625766359161</v>
+      </c>
+      <c r="I40">
+        <v>1.034774659876782</v>
+      </c>
+      <c r="J40">
+        <v>0.8506039545739954</v>
+      </c>
+      <c r="K40">
+        <v>1.060625766359161</v>
+      </c>
+      <c r="L40">
+        <v>1.034774659876782</v>
+      </c>
+      <c r="M40">
+        <v>0.9426893072253885</v>
+      </c>
+      <c r="N40">
+        <v>0.9426893072253885</v>
+      </c>
+      <c r="O40">
+        <v>0.9263365916680164</v>
+      </c>
+      <c r="P40">
+        <v>0.9820014602699793</v>
+      </c>
+      <c r="Q40">
+        <v>0.9820014602699793</v>
+      </c>
+      <c r="R40">
+        <v>1.001657536792275</v>
+      </c>
+      <c r="S40">
+        <v>1.001657536792275</v>
+      </c>
+      <c r="T40">
+        <v>1.00128236119236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.003905434993564</v>
+      </c>
+      <c r="D41">
+        <v>1.047960600835811</v>
+      </c>
+      <c r="E41">
+        <v>1.00281493103712</v>
+      </c>
+      <c r="F41">
+        <v>0.9193529292500112</v>
+      </c>
+      <c r="G41">
+        <v>0.9758328108643904</v>
+      </c>
+      <c r="H41">
+        <v>1.047960600835811</v>
+      </c>
+      <c r="I41">
+        <v>0.9870216723648911</v>
+      </c>
+      <c r="J41">
+        <v>0.9758328108643904</v>
+      </c>
+      <c r="K41">
+        <v>1.047960600835811</v>
+      </c>
+      <c r="L41">
+        <v>0.9870216723648911</v>
+      </c>
+      <c r="M41">
+        <v>0.9814272416146408</v>
+      </c>
+      <c r="N41">
+        <v>0.9814272416146408</v>
+      </c>
+      <c r="O41">
+        <v>0.9885564714221339</v>
+      </c>
+      <c r="P41">
+        <v>1.003605028021697</v>
+      </c>
+      <c r="Q41">
+        <v>1.003605028021697</v>
+      </c>
+      <c r="R41">
+        <v>1.014693921225226</v>
+      </c>
+      <c r="S41">
+        <v>1.014693921225226</v>
+      </c>
+      <c r="T41">
+        <v>0.9894813965576313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9229405366907616</v>
+      </c>
+      <c r="D42">
+        <v>0.808314629890054</v>
+      </c>
+      <c r="E42">
+        <v>1.201855998451725</v>
+      </c>
+      <c r="F42">
+        <v>0.7549841882193873</v>
+      </c>
+      <c r="G42">
+        <v>1.377447904078062</v>
+      </c>
+      <c r="H42">
+        <v>0.808314629890054</v>
+      </c>
+      <c r="I42">
+        <v>0.9613221402518939</v>
+      </c>
+      <c r="J42">
+        <v>1.377447904078062</v>
+      </c>
+      <c r="K42">
+        <v>0.808314629890054</v>
+      </c>
+      <c r="L42">
+        <v>0.9613221402518939</v>
+      </c>
+      <c r="M42">
+        <v>1.169385022164978</v>
+      </c>
+      <c r="N42">
+        <v>1.169385022164978</v>
+      </c>
+      <c r="O42">
+        <v>1.180208680927227</v>
+      </c>
+      <c r="P42">
+        <v>1.049028224740003</v>
+      </c>
+      <c r="Q42">
+        <v>1.049028224740003</v>
+      </c>
+      <c r="R42">
+        <v>0.9888498260275158</v>
+      </c>
+      <c r="S42">
+        <v>0.9888498260275158</v>
+      </c>
+      <c r="T42">
+        <v>1.004477566263647</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9970424161627358</v>
+        <v>0.9985540343125299</v>
       </c>
       <c r="D3">
-        <v>1.029353585538342</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="E3">
-        <v>0.9895912582429734</v>
+        <v>1.002673884918088</v>
       </c>
       <c r="F3">
-        <v>0.9970424161627358</v>
+        <v>0.9971571993390932</v>
       </c>
       <c r="G3">
-        <v>0.9720790934838743</v>
+        <v>1.005163739904502</v>
       </c>
       <c r="H3">
-        <v>1.018724109637097</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="I3">
-        <v>0.9915131038811706</v>
+        <v>0.9985007326163237</v>
       </c>
       <c r="J3">
-        <v>1.029353585538342</v>
+        <v>1.005163739904502</v>
       </c>
       <c r="K3">
-        <v>0.9970424161627358</v>
+        <v>0.9993816454619487</v>
       </c>
       <c r="L3">
-        <v>0.9895912582429734</v>
+        <v>0.9985007326163237</v>
       </c>
       <c r="M3">
-        <v>1.009472421890658</v>
+        <v>1.001832236260413</v>
       </c>
       <c r="N3">
-        <v>1.009472421890658</v>
+        <v>1.001832236260413</v>
       </c>
       <c r="O3">
-        <v>1.012556317806138</v>
+        <v>1.002112785812971</v>
       </c>
       <c r="P3">
-        <v>1.005329086648017</v>
+        <v>1.001015372660925</v>
       </c>
       <c r="Q3">
-        <v>1.005329086648017</v>
+        <v>1.001015372660925</v>
       </c>
       <c r="R3">
-        <v>1.003257419026697</v>
+        <v>1.000606940861181</v>
       </c>
       <c r="S3">
-        <v>1.003257419026697</v>
+        <v>1.000606940861181</v>
       </c>
       <c r="T3">
-        <v>0.999717261157699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000238539425414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9944260273942619</v>
+        <v>1.045852028845077</v>
       </c>
       <c r="D4">
-        <v>1.056636630990185</v>
+        <v>1.060625766359161</v>
       </c>
       <c r="E4">
-        <v>0.9798867912512477</v>
+        <v>0.8936311605532722</v>
       </c>
       <c r="F4">
-        <v>0.9944260273942619</v>
+        <v>1.122206596945874</v>
       </c>
       <c r="G4">
-        <v>0.9459945826159267</v>
+        <v>0.8506039545739954</v>
       </c>
       <c r="H4">
-        <v>1.036139782684185</v>
+        <v>1.060625766359161</v>
       </c>
       <c r="I4">
-        <v>0.9836292319781862</v>
+        <v>1.034774659876782</v>
       </c>
       <c r="J4">
-        <v>1.056636630990185</v>
+        <v>0.8506039545739954</v>
       </c>
       <c r="K4">
-        <v>0.9944260273942619</v>
+        <v>1.060625766359161</v>
       </c>
       <c r="L4">
-        <v>0.9798867912512477</v>
+        <v>1.034774659876782</v>
       </c>
       <c r="M4">
-        <v>1.018261711120716</v>
+        <v>0.9426893072253885</v>
       </c>
       <c r="N4">
-        <v>1.018261711120716</v>
+        <v>0.9426893072253885</v>
       </c>
       <c r="O4">
-        <v>1.024221068308539</v>
+        <v>0.9263365916680164</v>
       </c>
       <c r="P4">
-        <v>1.010316483211898</v>
+        <v>0.9820014602699793</v>
       </c>
       <c r="Q4">
-        <v>1.010316483211898</v>
+        <v>0.9820014602699793</v>
       </c>
       <c r="R4">
-        <v>1.006343869257489</v>
+        <v>1.001657536792275</v>
       </c>
       <c r="S4">
-        <v>1.006343869257489</v>
+        <v>1.001657536792275</v>
       </c>
       <c r="T4">
-        <v>0.9994521744856654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.00128236119236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9882046152335359</v>
+        <v>0.9082055507276665</v>
       </c>
       <c r="D5">
-        <v>1.108591297276721</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="E5">
-        <v>0.9616575607585645</v>
+        <v>1.192978757567722</v>
       </c>
       <c r="F5">
-        <v>0.9882046152335359</v>
+        <v>0.8184661270406317</v>
       </c>
       <c r="G5">
-        <v>0.8977306797251827</v>
+        <v>1.361864915276078</v>
       </c>
       <c r="H5">
-        <v>1.069296052399314</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="I5">
-        <v>0.9685254604680356</v>
+        <v>0.923721825273775</v>
       </c>
       <c r="J5">
-        <v>1.108591297276721</v>
+        <v>1.361864915276078</v>
       </c>
       <c r="K5">
-        <v>0.9882046152335359</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="L5">
-        <v>0.9616575607585645</v>
+        <v>0.923721825273775</v>
       </c>
       <c r="M5">
-        <v>1.035124429017643</v>
+        <v>1.142793370274927</v>
       </c>
       <c r="N5">
-        <v>1.035124429017643</v>
+        <v>1.142793370274927</v>
       </c>
       <c r="O5">
-        <v>1.046514970144867</v>
+        <v>1.159521832705859</v>
       </c>
       <c r="P5">
-        <v>1.019484491089607</v>
+        <v>1.05381307897387</v>
       </c>
       <c r="Q5">
-        <v>1.019484491089607</v>
+        <v>1.05381307897387</v>
       </c>
       <c r="R5">
-        <v>1.011664522125589</v>
+        <v>1.009322933323342</v>
       </c>
       <c r="S5">
-        <v>1.011664522125589</v>
+        <v>1.009322933323342</v>
       </c>
       <c r="T5">
-        <v>0.9990009443102257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.013514945376272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9828997828081983</v>
+        <v>0.6734398901329712</v>
       </c>
       <c r="D6">
-        <v>1.154322128496852</v>
+        <v>0.5165948920461889</v>
       </c>
       <c r="E6">
-        <v>0.9422238534981207</v>
+        <v>1.670238201248365</v>
       </c>
       <c r="F6">
-        <v>0.9828997828081983</v>
+        <v>0.4453172439371813</v>
       </c>
       <c r="G6">
-        <v>0.8499833282888689</v>
+        <v>2.252649967099699</v>
       </c>
       <c r="H6">
-        <v>1.102391258570157</v>
+        <v>0.5165948920461889</v>
       </c>
       <c r="I6">
-        <v>0.9533848858996496</v>
+        <v>0.7540469289031674</v>
       </c>
       <c r="J6">
-        <v>1.154322128496852</v>
+        <v>2.252649967099699</v>
       </c>
       <c r="K6">
-        <v>0.9828997828081983</v>
+        <v>0.5165948920461889</v>
       </c>
       <c r="L6">
-        <v>0.9422238534981207</v>
+        <v>0.7540469289031674</v>
       </c>
       <c r="M6">
-        <v>1.048272990997487</v>
+        <v>1.503348448001433</v>
       </c>
       <c r="N6">
-        <v>1.048272990997487</v>
+        <v>1.503348448001433</v>
       </c>
       <c r="O6">
-        <v>1.06631241352171</v>
+        <v>1.55897836575041</v>
       </c>
       <c r="P6">
-        <v>1.026481921601057</v>
+        <v>1.174430596016352</v>
       </c>
       <c r="Q6">
-        <v>1.026481921601057</v>
+        <v>1.174430596016352</v>
       </c>
       <c r="R6">
-        <v>1.015586386902843</v>
+        <v>1.009971670023811</v>
       </c>
       <c r="S6">
-        <v>1.015586386902843</v>
+        <v>1.009971670023811</v>
       </c>
       <c r="T6">
-        <v>0.9975342062603079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.052047853894595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994337321505069</v>
+        <v>0.991752084836559</v>
       </c>
       <c r="D7">
-        <v>1.002289901862889</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="E7">
-        <v>0.9994457313396182</v>
+        <v>1.018899583511139</v>
       </c>
       <c r="F7">
-        <v>0.9994337321505069</v>
+        <v>0.9696519811559705</v>
       </c>
       <c r="G7">
-        <v>0.9988103506203296</v>
+        <v>1.027865337090444</v>
       </c>
       <c r="H7">
-        <v>1.001199365125403</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="I7">
-        <v>0.9993893400585304</v>
+        <v>0.9886510237946938</v>
       </c>
       <c r="J7">
-        <v>1.002289901862889</v>
+        <v>1.027865337090444</v>
       </c>
       <c r="K7">
-        <v>0.9994337321505069</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="L7">
-        <v>0.9994457313396182</v>
+        <v>0.9886510237946938</v>
       </c>
       <c r="M7">
-        <v>1.000867816601254</v>
+        <v>1.008258180442569</v>
       </c>
       <c r="N7">
-        <v>1.000867816601254</v>
+        <v>1.008258180442569</v>
       </c>
       <c r="O7">
-        <v>1.00097833277597</v>
+        <v>1.011805314798759</v>
       </c>
       <c r="P7">
-        <v>1.000389788451005</v>
+        <v>1.005135349050687</v>
       </c>
       <c r="Q7">
-        <v>1.000389788451005</v>
+        <v>1.005135349050687</v>
       </c>
       <c r="R7">
-        <v>1.00015077437588</v>
+        <v>1.003573933354746</v>
       </c>
       <c r="S7">
-        <v>1.00015077437588</v>
+        <v>1.003573933354746</v>
       </c>
       <c r="T7">
-        <v>1.000094736859546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9992849494426216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9993816454619493</v>
+        <v>0.9991881495454132</v>
       </c>
       <c r="D8">
-        <v>1.005163739904502</v>
+        <v>1.001038239787398</v>
       </c>
       <c r="E8">
-        <v>0.9985007326163233</v>
+        <v>1.00134665013841</v>
       </c>
       <c r="F8">
-        <v>0.9993816454619493</v>
+        <v>0.9969848261408647</v>
       </c>
       <c r="G8">
-        <v>0.9971571993390932</v>
+        <v>1.002282218877807</v>
       </c>
       <c r="H8">
-        <v>1.002673884918088</v>
+        <v>1.001038239787398</v>
       </c>
       <c r="I8">
-        <v>0.9985540343125299</v>
+        <v>0.9991188360249758</v>
       </c>
       <c r="J8">
-        <v>1.005163739904502</v>
+        <v>1.002282218877807</v>
       </c>
       <c r="K8">
-        <v>0.9993816454619493</v>
+        <v>1.001038239787398</v>
       </c>
       <c r="L8">
-        <v>0.9985007326163233</v>
+        <v>0.9991188360249758</v>
       </c>
       <c r="M8">
-        <v>1.001832236260412</v>
+        <v>1.000700527451392</v>
       </c>
       <c r="N8">
-        <v>1.001832236260412</v>
+        <v>1.000700527451392</v>
       </c>
       <c r="O8">
-        <v>1.002112785812971</v>
+        <v>1.000915901680398</v>
       </c>
       <c r="P8">
-        <v>1.001015372660925</v>
+        <v>1.00081309823006</v>
       </c>
       <c r="Q8">
-        <v>1.001015372660925</v>
+        <v>1.00081309823006</v>
       </c>
       <c r="R8">
-        <v>1.000606940861181</v>
+        <v>1.000869383619395</v>
       </c>
       <c r="S8">
-        <v>1.000606940861181</v>
+        <v>1.000869383619395</v>
       </c>
       <c r="T8">
-        <v>1.000238539425414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999931534191449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000208210202101</v>
+        <v>0.9836292319781862</v>
       </c>
       <c r="D9">
-        <v>1.006723809707506</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="E9">
-        <v>0.9976886989902576</v>
+        <v>1.036139782684184</v>
       </c>
       <c r="F9">
-        <v>1.000208210202101</v>
+        <v>0.9459945826159266</v>
       </c>
       <c r="G9">
-        <v>0.9951189135733662</v>
+        <v>1.056636630990185</v>
       </c>
       <c r="H9">
-        <v>1.003438761824486</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="I9">
-        <v>0.9981742060467709</v>
+        <v>0.9798867912512477</v>
       </c>
       <c r="J9">
-        <v>1.006723809707506</v>
+        <v>1.056636630990185</v>
       </c>
       <c r="K9">
-        <v>1.000208210202101</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="L9">
-        <v>0.9976886989902576</v>
+        <v>0.9798867912512477</v>
       </c>
       <c r="M9">
-        <v>1.002206254348882</v>
+        <v>1.018261711120716</v>
       </c>
       <c r="N9">
-        <v>1.002206254348882</v>
+        <v>1.018261711120716</v>
       </c>
       <c r="O9">
-        <v>1.002617090174083</v>
+        <v>1.024221068308539</v>
       </c>
       <c r="P9">
-        <v>1.001540239633288</v>
+        <v>1.010316483211898</v>
       </c>
       <c r="Q9">
-        <v>1.001540239633288</v>
+        <v>1.010316483211898</v>
       </c>
       <c r="R9">
-        <v>1.001207232275491</v>
+        <v>1.006343869257489</v>
       </c>
       <c r="S9">
-        <v>1.001207232275491</v>
+        <v>1.006343869257489</v>
       </c>
       <c r="T9">
-        <v>1.000225433390748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9994521744856653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9989760708699846</v>
+        <v>0.6683024179032657</v>
       </c>
       <c r="D10">
-        <v>1.014837372132853</v>
+        <v>0.5058976321713459</v>
       </c>
       <c r="E10">
-        <v>0.9954126664810458</v>
+        <v>1.68040834956675</v>
       </c>
       <c r="F10">
-        <v>0.9989760708699846</v>
+        <v>0.4408782912671037</v>
       </c>
       <c r="G10">
-        <v>0.990377384221969</v>
+        <v>2.272896606581873</v>
       </c>
       <c r="H10">
-        <v>1.007723736617534</v>
+        <v>0.5058976321713459</v>
       </c>
       <c r="I10">
-        <v>0.9959208182557111</v>
+        <v>0.7515414994412276</v>
       </c>
       <c r="J10">
-        <v>1.014837372132853</v>
+        <v>2.272896606581873</v>
       </c>
       <c r="K10">
-        <v>0.9989760708699846</v>
+        <v>0.5058976321713459</v>
       </c>
       <c r="L10">
-        <v>0.9954126664810458</v>
+        <v>0.7515414994412276</v>
       </c>
       <c r="M10">
-        <v>1.005125019306949</v>
+        <v>1.51221905301155</v>
       </c>
       <c r="N10">
-        <v>1.005125019306949</v>
+        <v>1.51221905301155</v>
       </c>
       <c r="O10">
-        <v>1.005991258410478</v>
+        <v>1.568282151863283</v>
       </c>
       <c r="P10">
-        <v>1.003075369827961</v>
+        <v>1.176778579398149</v>
       </c>
       <c r="Q10">
-        <v>1.003075369827961</v>
+        <v>1.176778579398149</v>
       </c>
       <c r="R10">
-        <v>1.002050545088467</v>
+        <v>1.009058342591448</v>
       </c>
       <c r="S10">
-        <v>1.002050545088467</v>
+        <v>1.009058342591448</v>
       </c>
       <c r="T10">
-        <v>1.00054134142985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.053320799488594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002461628237658</v>
+        <v>1.033272268877234</v>
       </c>
       <c r="D11">
-        <v>1.022714826125585</v>
+        <v>1.07558425517188</v>
       </c>
       <c r="E11">
-        <v>0.9910108347110824</v>
+        <v>0.9503773386351939</v>
       </c>
       <c r="F11">
-        <v>1.002461628237658</v>
+        <v>0.948612063721247</v>
       </c>
       <c r="G11">
-        <v>0.9824003052210519</v>
+        <v>0.8887146450017073</v>
       </c>
       <c r="H11">
-        <v>1.012210902602173</v>
+        <v>1.07558425517188</v>
       </c>
       <c r="I11">
-        <v>0.9933677357828513</v>
+        <v>1.008061094245881</v>
       </c>
       <c r="J11">
-        <v>1.022714826125585</v>
+        <v>0.8887146450017073</v>
       </c>
       <c r="K11">
-        <v>1.002461628237658</v>
+        <v>1.07558425517188</v>
       </c>
       <c r="L11">
-        <v>0.9910108347110824</v>
+        <v>1.008061094245881</v>
       </c>
       <c r="M11">
-        <v>1.006862830418334</v>
+        <v>0.9483878696237944</v>
       </c>
       <c r="N11">
-        <v>1.006862830418334</v>
+        <v>0.9483878696237944</v>
       </c>
       <c r="O11">
-        <v>1.00864552114628</v>
+        <v>0.9490510259609275</v>
       </c>
       <c r="P11">
-        <v>1.005395763024775</v>
+        <v>0.9907866648064897</v>
       </c>
       <c r="Q11">
-        <v>1.005395763024775</v>
+        <v>0.9907866648064897</v>
       </c>
       <c r="R11">
-        <v>1.004662229327996</v>
+        <v>1.011986062397837</v>
       </c>
       <c r="S11">
-        <v>1.004662229327996</v>
+        <v>1.011986062397837</v>
       </c>
       <c r="T11">
-        <v>1.000694372113401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9841036109421907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.403528402389451</v>
+        <v>0.9026457856736833</v>
       </c>
       <c r="D12">
-        <v>0.6635768923684405</v>
+        <v>0.8460077723473672</v>
       </c>
       <c r="E12">
-        <v>0.9124005190079704</v>
+        <v>1.201521426014737</v>
       </c>
       <c r="F12">
-        <v>1.403528402389451</v>
+        <v>0.8407287985115789</v>
       </c>
       <c r="G12">
-        <v>0.6690815528534578</v>
+        <v>1.38316166533284</v>
       </c>
       <c r="H12">
-        <v>0.9214158108128404</v>
+        <v>0.8460077723473672</v>
       </c>
       <c r="I12">
-        <v>1.054856370919584</v>
+        <v>0.9290229744421054</v>
       </c>
       <c r="J12">
-        <v>0.6635768923684405</v>
+        <v>1.38316166533284</v>
       </c>
       <c r="K12">
-        <v>1.403528402389451</v>
+        <v>0.8460077723473672</v>
       </c>
       <c r="L12">
-        <v>0.9124005190079704</v>
+        <v>0.9290229744421054</v>
       </c>
       <c r="M12">
-        <v>0.7879887056882054</v>
+        <v>1.156092319887473</v>
       </c>
       <c r="N12">
-        <v>0.7879887056882054</v>
+        <v>1.156092319887473</v>
       </c>
       <c r="O12">
-        <v>0.832464407396417</v>
+        <v>1.171235355263227</v>
       </c>
       <c r="P12">
-        <v>0.9931686045886208</v>
+        <v>1.052730804040771</v>
       </c>
       <c r="Q12">
-        <v>0.9931686045886208</v>
+        <v>1.052730804040771</v>
       </c>
       <c r="R12">
-        <v>1.095758554038828</v>
+        <v>1.00105004611742</v>
       </c>
       <c r="S12">
-        <v>1.095758554038828</v>
+        <v>1.00105004611742</v>
       </c>
       <c r="T12">
-        <v>0.9374765913919574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.017181403720385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8468081759927387</v>
+        <v>1.060748654780054</v>
       </c>
       <c r="D13">
-        <v>1.056037866762895</v>
+        <v>1.063939392709653</v>
       </c>
       <c r="E13">
-        <v>1.056712734359743</v>
+        <v>0.8686325679436686</v>
       </c>
       <c r="F13">
-        <v>0.8468081759927387</v>
+        <v>1.151942483823162</v>
       </c>
       <c r="G13">
-        <v>1.194609717712538</v>
+        <v>0.7568517896844327</v>
       </c>
       <c r="H13">
-        <v>0.9909544880417693</v>
+        <v>1.063939392709653</v>
       </c>
       <c r="I13">
-        <v>0.996385589877836</v>
+        <v>1.058225048353157</v>
       </c>
       <c r="J13">
-        <v>1.056037866762895</v>
+        <v>0.7568517896844327</v>
       </c>
       <c r="K13">
-        <v>0.8468081759927387</v>
+        <v>1.063939392709653</v>
       </c>
       <c r="L13">
-        <v>1.056712734359743</v>
+        <v>1.058225048353157</v>
       </c>
       <c r="M13">
-        <v>1.056375300561319</v>
+        <v>0.9075384190187946</v>
       </c>
       <c r="N13">
-        <v>1.056375300561319</v>
+        <v>0.9075384190187946</v>
       </c>
       <c r="O13">
-        <v>1.034568363054802</v>
+        <v>0.8945698019937526</v>
       </c>
       <c r="P13">
-        <v>0.9865195923717923</v>
+        <v>0.9596720769157475</v>
       </c>
       <c r="Q13">
-        <v>0.9865195923717923</v>
+        <v>0.9596720769157475</v>
       </c>
       <c r="R13">
-        <v>0.9515917382770289</v>
+        <v>0.9857389058642241</v>
       </c>
       <c r="S13">
-        <v>0.9515917382770289</v>
+        <v>0.9857389058642241</v>
       </c>
       <c r="T13">
-        <v>1.023584762124587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9933899895490211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5063513293273471</v>
+        <v>0.4245495099999994</v>
       </c>
       <c r="D14">
-        <v>1.133231073840437</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="E14">
-        <v>1.205819316301074</v>
+        <v>2.176175800000001</v>
       </c>
       <c r="F14">
-        <v>0.5063513293273471</v>
+        <v>0.044891432</v>
       </c>
       <c r="G14">
-        <v>1.70896085236904</v>
+        <v>3.193908999999997</v>
       </c>
       <c r="H14">
-        <v>0.9346638511948349</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="I14">
-        <v>1.005043496379461</v>
+        <v>0.57115904</v>
       </c>
       <c r="J14">
-        <v>1.133231073840437</v>
+        <v>3.193908999999997</v>
       </c>
       <c r="K14">
-        <v>0.5063513293273471</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="L14">
-        <v>1.205819316301074</v>
+        <v>0.57115904</v>
       </c>
       <c r="M14">
-        <v>1.169525195070756</v>
+        <v>1.882534019999998</v>
       </c>
       <c r="N14">
-        <v>1.169525195070756</v>
+        <v>1.882534019999998</v>
       </c>
       <c r="O14">
-        <v>1.091238080445449</v>
+        <v>1.980414613333332</v>
       </c>
       <c r="P14">
-        <v>0.9484672398229529</v>
+        <v>1.302494539999999</v>
       </c>
       <c r="Q14">
-        <v>0.9484672398229527</v>
+        <v>1.302494539999999</v>
       </c>
       <c r="R14">
-        <v>0.8379382621990513</v>
+        <v>1.012474799999999</v>
       </c>
       <c r="S14">
-        <v>0.8379382621990513</v>
+        <v>1.012474799999999</v>
       </c>
       <c r="T14">
-        <v>1.082344986568699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.092183393666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.231506167274014</v>
+        <v>1.134</v>
       </c>
       <c r="D15">
-        <v>0.8684645401865594</v>
+        <v>3.4428622</v>
       </c>
       <c r="E15">
-        <v>0.9700202581814543</v>
+        <v>0.39134565</v>
       </c>
       <c r="F15">
-        <v>1.231506167274014</v>
+        <v>0.21380688</v>
       </c>
       <c r="G15">
-        <v>0.7342906767667204</v>
+        <v>0.023300756</v>
       </c>
       <c r="H15">
-        <v>0.9330540408966668</v>
+        <v>3.4428622</v>
       </c>
       <c r="I15">
-        <v>1.048364768093853</v>
+        <v>0.42160412</v>
       </c>
       <c r="J15">
-        <v>0.8684645401865594</v>
+        <v>0.023300756</v>
       </c>
       <c r="K15">
-        <v>1.231506167274014</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>0.9700202581814543</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.9192423991840069</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.9192423991840069</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>0.9238462797548935</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>1.023330321880676</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>1.023330321880676</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>1.07537428322901</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>1.07537428322901</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>0.9642834085665445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9985233163968461</v>
+        <v>1.3839943</v>
       </c>
       <c r="D16">
-        <v>1.000797781304613</v>
+        <v>1.6032202</v>
       </c>
       <c r="E16">
-        <v>1.000232064647215</v>
+        <v>0.19752824</v>
       </c>
       <c r="F16">
-        <v>0.9985233163968461</v>
+        <v>1.6038972</v>
       </c>
       <c r="G16">
-        <v>1.001267860773857</v>
+        <v>0.012810897</v>
       </c>
       <c r="H16">
-        <v>1.000235140179138</v>
+        <v>1.6032202</v>
       </c>
       <c r="I16">
-        <v>0.9998967927352802</v>
+        <v>1.1282501</v>
       </c>
       <c r="J16">
-        <v>1.000797781304613</v>
+        <v>0.012810897</v>
       </c>
       <c r="K16">
-        <v>0.9985233163968461</v>
+        <v>1.6032202</v>
       </c>
       <c r="L16">
-        <v>1.000232064647215</v>
+        <v>1.1282501</v>
       </c>
       <c r="M16">
-        <v>1.000514922975914</v>
+        <v>0.5705304985</v>
       </c>
       <c r="N16">
-        <v>1.000514922975914</v>
+        <v>0.5705304985</v>
       </c>
       <c r="O16">
-        <v>1.000421662043655</v>
+        <v>0.4461964123333333</v>
       </c>
       <c r="P16">
-        <v>0.9998510541162249</v>
+        <v>0.9147603990000001</v>
       </c>
       <c r="Q16">
-        <v>0.9998510541162249</v>
+        <v>0.9147603990000001</v>
       </c>
       <c r="R16">
-        <v>0.9995191196863802</v>
+        <v>1.08687534925</v>
       </c>
       <c r="S16">
-        <v>0.9995191196863802</v>
+        <v>1.08687534925</v>
       </c>
       <c r="T16">
-        <v>1.000158826006158</v>
+        <v>0.9882834895</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001038239787398</v>
+        <v>1.3278473</v>
       </c>
       <c r="D17">
-        <v>1.002282218877807</v>
+        <v>1.0973062</v>
       </c>
       <c r="E17">
-        <v>0.9991188360249755</v>
+        <v>0.16970919</v>
       </c>
       <c r="F17">
-        <v>1.001038239787398</v>
+        <v>2.4946312</v>
       </c>
       <c r="G17">
-        <v>0.996984826140865</v>
+        <v>0.013823113</v>
       </c>
       <c r="H17">
-        <v>1.00134665013841</v>
+        <v>1.0973062</v>
       </c>
       <c r="I17">
-        <v>0.9991881495454129</v>
+        <v>1.3875695</v>
       </c>
       <c r="J17">
-        <v>1.002282218877807</v>
+        <v>0.013823113</v>
       </c>
       <c r="K17">
-        <v>1.001038239787398</v>
+        <v>1.0973062</v>
       </c>
       <c r="L17">
-        <v>0.9991188360249755</v>
+        <v>1.3875695</v>
       </c>
       <c r="M17">
-        <v>1.000700527451391</v>
+        <v>0.7006963064999999</v>
       </c>
       <c r="N17">
-        <v>1.000700527451391</v>
+        <v>0.7006963064999999</v>
       </c>
       <c r="O17">
-        <v>1.000915901680397</v>
+        <v>0.5237006009999999</v>
       </c>
       <c r="P17">
-        <v>1.00081309823006</v>
+        <v>0.8328996043333333</v>
       </c>
       <c r="Q17">
-        <v>1.00081309823006</v>
+        <v>0.8328996043333333</v>
       </c>
       <c r="R17">
-        <v>1.000869383619395</v>
+        <v>0.89900125325</v>
       </c>
       <c r="S17">
-        <v>1.000869383619395</v>
+        <v>0.89900125325</v>
       </c>
       <c r="T17">
-        <v>0.9999931534191449</v>
+        <v>1.081814417166667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9959573523253962</v>
+        <v>0.810573397260274</v>
       </c>
       <c r="D18">
-        <v>1.009187337882349</v>
+        <v>0.9732692501917805</v>
       </c>
       <c r="E18">
-        <v>0.9969223674554341</v>
+        <v>1.416720482602739</v>
       </c>
       <c r="F18">
-        <v>0.9959573523253962</v>
+        <v>0.3419288072931508</v>
       </c>
       <c r="G18">
-        <v>0.9945472980773838</v>
+        <v>1.656428450547946</v>
       </c>
       <c r="H18">
-        <v>1.006446824828841</v>
+        <v>0.9732692501917805</v>
       </c>
       <c r="I18">
-        <v>0.9970657973753239</v>
+        <v>0.7538242334246578</v>
       </c>
       <c r="J18">
-        <v>1.009187337882349</v>
+        <v>1.656428450547946</v>
       </c>
       <c r="K18">
-        <v>0.9959573523253962</v>
+        <v>0.9732692501917805</v>
       </c>
       <c r="L18">
-        <v>0.9969223674554341</v>
+        <v>0.7538242334246578</v>
       </c>
       <c r="M18">
-        <v>1.003054852668892</v>
+        <v>1.205126341986302</v>
       </c>
       <c r="N18">
-        <v>1.003054852668892</v>
+        <v>1.205126341986302</v>
       </c>
       <c r="O18">
-        <v>1.004185510055541</v>
+        <v>1.275657722191781</v>
       </c>
       <c r="P18">
-        <v>1.00068901922106</v>
+        <v>1.127840644721461</v>
       </c>
       <c r="Q18">
-        <v>1.00068901922106</v>
+        <v>1.127840644721461</v>
       </c>
       <c r="R18">
-        <v>0.999506102497144</v>
+        <v>1.089197796089041</v>
       </c>
       <c r="S18">
-        <v>0.999506102497144</v>
+        <v>1.089197796089041</v>
       </c>
       <c r="T18">
-        <v>1.000021162990788</v>
+        <v>0.9921241035534246</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9839409849654888</v>
+        <v>0.9972905463157895</v>
       </c>
       <c r="D19">
-        <v>1.027243123388855</v>
+        <v>0.7707098973684211</v>
       </c>
       <c r="E19">
-        <v>0.9939691789527721</v>
+        <v>0.8299944868421053</v>
       </c>
       <c r="F19">
-        <v>0.9839409849654888</v>
+        <v>1.777354282315789</v>
       </c>
       <c r="G19">
-        <v>0.9891628385452954</v>
+        <v>1.244688769789473</v>
       </c>
       <c r="H19">
-        <v>1.015556466927989</v>
+        <v>0.7707098973684211</v>
       </c>
       <c r="I19">
-        <v>0.9941598240573255</v>
+        <v>1.125876118421053</v>
       </c>
       <c r="J19">
-        <v>1.027243123388855</v>
+        <v>1.244688769789473</v>
       </c>
       <c r="K19">
-        <v>0.9839409849654888</v>
+        <v>0.7707098973684211</v>
       </c>
       <c r="L19">
-        <v>0.9939691789527721</v>
+        <v>1.125876118421053</v>
       </c>
       <c r="M19">
-        <v>1.010606151170814</v>
+        <v>1.185282444105263</v>
       </c>
       <c r="N19">
-        <v>1.010606151170814</v>
+        <v>1.185282444105263</v>
       </c>
       <c r="O19">
-        <v>1.012256256423206</v>
+        <v>1.066853125017544</v>
       </c>
       <c r="P19">
-        <v>1.001717762435705</v>
+        <v>1.047091595192982</v>
       </c>
       <c r="Q19">
-        <v>1.001717762435705</v>
+        <v>1.047091595192982</v>
       </c>
       <c r="R19">
-        <v>0.9972735680681513</v>
+        <v>0.977996170736842</v>
       </c>
       <c r="S19">
-        <v>0.9972735680681513</v>
+        <v>0.977996170736842</v>
       </c>
       <c r="T19">
-        <v>1.000672069472955</v>
+        <v>1.124319016842105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.080473502105263</v>
+      </c>
+      <c r="D20">
+        <v>1.167429815789474</v>
+      </c>
+      <c r="E20">
+        <v>0.7816177821052632</v>
+      </c>
+      <c r="F20">
+        <v>1.367896982736842</v>
+      </c>
+      <c r="G20">
+        <v>0.6336225186526315</v>
+      </c>
+      <c r="H20">
+        <v>1.167429815789474</v>
+      </c>
+      <c r="I20">
+        <v>1.022271596842105</v>
+      </c>
+      <c r="J20">
+        <v>0.6336225186526315</v>
+      </c>
+      <c r="K20">
+        <v>1.167429815789474</v>
+      </c>
+      <c r="L20">
+        <v>1.022271596842105</v>
+      </c>
+      <c r="M20">
+        <v>0.8279470577473684</v>
+      </c>
+      <c r="N20">
+        <v>0.8279470577473684</v>
+      </c>
+      <c r="O20">
+        <v>0.8125039658666667</v>
+      </c>
+      <c r="P20">
+        <v>0.9411079770947369</v>
+      </c>
+      <c r="Q20">
+        <v>0.9411079770947369</v>
+      </c>
+      <c r="R20">
+        <v>0.9976884367684211</v>
+      </c>
+      <c r="S20">
+        <v>0.9976884367684211</v>
+      </c>
+      <c r="T20">
+        <v>1.00888536637193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.005043496379461</v>
+      </c>
+      <c r="D21">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="E21">
+        <v>0.9346638511948349</v>
+      </c>
+      <c r="F21">
+        <v>1.70896085236904</v>
+      </c>
+      <c r="G21">
+        <v>1.133231073840437</v>
+      </c>
+      <c r="H21">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="I21">
+        <v>1.205819316301074</v>
+      </c>
+      <c r="J21">
+        <v>1.133231073840437</v>
+      </c>
+      <c r="K21">
+        <v>0.5063513293273471</v>
+      </c>
+      <c r="L21">
+        <v>1.205819316301074</v>
+      </c>
+      <c r="M21">
+        <v>1.169525195070755</v>
+      </c>
+      <c r="N21">
+        <v>1.169525195070755</v>
+      </c>
+      <c r="O21">
+        <v>1.091238080445448</v>
+      </c>
+      <c r="P21">
+        <v>0.9484672398229527</v>
+      </c>
+      <c r="Q21">
+        <v>0.9484672398229526</v>
+      </c>
+      <c r="R21">
+        <v>0.8379382621990512</v>
+      </c>
+      <c r="S21">
+        <v>0.8379382621990512</v>
+      </c>
+      <c r="T21">
+        <v>1.082344986568699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.048364768093853</v>
+      </c>
+      <c r="D22">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="E22">
+        <v>0.9330540408966668</v>
+      </c>
+      <c r="F22">
+        <v>0.7342906767667204</v>
+      </c>
+      <c r="G22">
+        <v>0.8684645401865594</v>
+      </c>
+      <c r="H22">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="I22">
+        <v>0.9700202581814543</v>
+      </c>
+      <c r="J22">
+        <v>0.8684645401865594</v>
+      </c>
+      <c r="K22">
+        <v>1.231506167274014</v>
+      </c>
+      <c r="L22">
+        <v>0.9700202581814543</v>
+      </c>
+      <c r="M22">
+        <v>0.9192423991840069</v>
+      </c>
+      <c r="N22">
+        <v>0.9192423991840069</v>
+      </c>
+      <c r="O22">
+        <v>0.9238462797548935</v>
+      </c>
+      <c r="P22">
+        <v>1.023330321880676</v>
+      </c>
+      <c r="Q22">
+        <v>1.023330321880676</v>
+      </c>
+      <c r="R22">
+        <v>1.07537428322901</v>
+      </c>
+      <c r="S22">
+        <v>1.07537428322901</v>
+      </c>
+      <c r="T22">
+        <v>0.9642834085665445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.054856370919584</v>
+      </c>
+      <c r="D23">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="E23">
+        <v>0.9214158108128403</v>
+      </c>
+      <c r="F23">
+        <v>0.6690815528534579</v>
+      </c>
+      <c r="G23">
+        <v>0.6635768923684404</v>
+      </c>
+      <c r="H23">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="I23">
+        <v>0.9124005190079704</v>
+      </c>
+      <c r="J23">
+        <v>0.6635768923684404</v>
+      </c>
+      <c r="K23">
+        <v>1.403528402389452</v>
+      </c>
+      <c r="L23">
+        <v>0.9124005190079704</v>
+      </c>
+      <c r="M23">
+        <v>0.7879887056882053</v>
+      </c>
+      <c r="N23">
+        <v>0.7879887056882053</v>
+      </c>
+      <c r="O23">
+        <v>0.8324644073964169</v>
+      </c>
+      <c r="P23">
+        <v>0.9931686045886208</v>
+      </c>
+      <c r="Q23">
+        <v>0.9931686045886209</v>
+      </c>
+      <c r="R23">
+        <v>1.095758554038829</v>
+      </c>
+      <c r="S23">
+        <v>1.095758554038829</v>
+      </c>
+      <c r="T23">
+        <v>0.9374765913919575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.996385589877836</v>
+      </c>
+      <c r="D24">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="E24">
+        <v>0.990954488041769</v>
+      </c>
+      <c r="F24">
+        <v>1.194609717712538</v>
+      </c>
+      <c r="G24">
+        <v>1.056037866762896</v>
+      </c>
+      <c r="H24">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="I24">
+        <v>1.056712734359743</v>
+      </c>
+      <c r="J24">
+        <v>1.056037866762896</v>
+      </c>
+      <c r="K24">
+        <v>0.8468081759927384</v>
+      </c>
+      <c r="L24">
+        <v>1.056712734359743</v>
+      </c>
+      <c r="M24">
+        <v>1.056375300561319</v>
+      </c>
+      <c r="N24">
+        <v>1.056375300561319</v>
+      </c>
+      <c r="O24">
+        <v>1.034568363054803</v>
+      </c>
+      <c r="P24">
+        <v>0.9865195923717923</v>
+      </c>
+      <c r="Q24">
+        <v>0.9865195923717923</v>
+      </c>
+      <c r="R24">
+        <v>0.9515917382770288</v>
+      </c>
+      <c r="S24">
+        <v>0.9515917382770288</v>
+      </c>
+      <c r="T24">
+        <v>1.023584762124587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.183435388925062</v>
+      </c>
+      <c r="D25">
+        <v>1.329707728750819</v>
+      </c>
+      <c r="E25">
+        <v>0.6087841194178971</v>
+      </c>
+      <c r="F25">
+        <v>1.281198579278703</v>
+      </c>
+      <c r="G25">
+        <v>0.2345726095171259</v>
+      </c>
+      <c r="H25">
+        <v>1.329707728750819</v>
+      </c>
+      <c r="I25">
+        <v>1.137756355835122</v>
+      </c>
+      <c r="J25">
+        <v>0.2345726095171259</v>
+      </c>
+      <c r="K25">
+        <v>1.329707728750819</v>
+      </c>
+      <c r="L25">
+        <v>1.137756355835122</v>
+      </c>
+      <c r="M25">
+        <v>0.6861644826761241</v>
+      </c>
+      <c r="N25">
+        <v>0.6861644826761241</v>
+      </c>
+      <c r="O25">
+        <v>0.6603710282567151</v>
+      </c>
+      <c r="P25">
+        <v>0.9006788980343557</v>
+      </c>
+      <c r="Q25">
+        <v>0.9006788980343557</v>
+      </c>
+      <c r="R25">
+        <v>1.007936105713471</v>
+      </c>
+      <c r="S25">
+        <v>1.007936105713471</v>
+      </c>
+      <c r="T25">
+        <v>0.9625757969541215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.025124699423622</v>
+      </c>
+      <c r="D26">
+        <v>0.9804380847934403</v>
+      </c>
+      <c r="E26">
+        <v>0.9256060515221944</v>
+      </c>
+      <c r="F26">
+        <v>1.235506213360569</v>
+      </c>
+      <c r="G26">
+        <v>0.8225992114436458</v>
+      </c>
+      <c r="H26">
+        <v>0.9804380847934403</v>
+      </c>
+      <c r="I26">
+        <v>1.037012166403133</v>
+      </c>
+      <c r="J26">
+        <v>0.8225992114436458</v>
+      </c>
+      <c r="K26">
+        <v>0.9804380847934403</v>
+      </c>
+      <c r="L26">
+        <v>1.037012166403133</v>
+      </c>
+      <c r="M26">
+        <v>0.9298056889233893</v>
+      </c>
+      <c r="N26">
+        <v>0.9298056889233893</v>
+      </c>
+      <c r="O26">
+        <v>0.9284058097896577</v>
+      </c>
+      <c r="P26">
+        <v>0.9466831542134063</v>
+      </c>
+      <c r="Q26">
+        <v>0.9466831542134063</v>
+      </c>
+      <c r="R26">
+        <v>0.9551218868584148</v>
+      </c>
+      <c r="S26">
+        <v>0.9551218868584148</v>
+      </c>
+      <c r="T26">
+        <v>1.004381071157767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9344069449597986</v>
+      </c>
+      <c r="D27">
+        <v>1.092560181185477</v>
+      </c>
+      <c r="E27">
+        <v>1.058691254306719</v>
+      </c>
+      <c r="F27">
+        <v>0.999531640615495</v>
+      </c>
+      <c r="G27">
+        <v>1.284110411752585</v>
+      </c>
+      <c r="H27">
+        <v>1.092560181185477</v>
+      </c>
+      <c r="I27">
+        <v>0.8687185007847665</v>
+      </c>
+      <c r="J27">
+        <v>1.284110411752585</v>
+      </c>
+      <c r="K27">
+        <v>1.092560181185477</v>
+      </c>
+      <c r="L27">
+        <v>0.8687185007847665</v>
+      </c>
+      <c r="M27">
+        <v>1.076414456268676</v>
+      </c>
+      <c r="N27">
+        <v>1.076414456268676</v>
+      </c>
+      <c r="O27">
+        <v>1.070506722281357</v>
+      </c>
+      <c r="P27">
+        <v>1.081796364574276</v>
+      </c>
+      <c r="Q27">
+        <v>1.081796364574276</v>
+      </c>
+      <c r="R27">
+        <v>1.084487318727076</v>
+      </c>
+      <c r="S27">
+        <v>1.084487318727076</v>
+      </c>
+      <c r="T27">
+        <v>1.039669822267473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.044581880552614</v>
+      </c>
+      <c r="D28">
+        <v>0.9483018996480834</v>
+      </c>
+      <c r="E28">
+        <v>0.9317934164169679</v>
+      </c>
+      <c r="F28">
+        <v>1.126851910448931</v>
+      </c>
+      <c r="G28">
+        <v>0.8860231326254117</v>
+      </c>
+      <c r="H28">
+        <v>0.9483018996480834</v>
+      </c>
+      <c r="I28">
+        <v>1.048396762309665</v>
+      </c>
+      <c r="J28">
+        <v>0.8860231326254117</v>
+      </c>
+      <c r="K28">
+        <v>0.9483018996480834</v>
+      </c>
+      <c r="L28">
+        <v>1.048396762309665</v>
+      </c>
+      <c r="M28">
+        <v>0.9672099474675382</v>
+      </c>
+      <c r="N28">
+        <v>0.9672099474675382</v>
+      </c>
+      <c r="O28">
+        <v>0.9554044371173481</v>
+      </c>
+      <c r="P28">
+        <v>0.9609072648610533</v>
+      </c>
+      <c r="Q28">
+        <v>0.9609072648610533</v>
+      </c>
+      <c r="R28">
+        <v>0.9577559235578108</v>
+      </c>
+      <c r="S28">
+        <v>0.9577559235578108</v>
+      </c>
+      <c r="T28">
+        <v>0.9976581670002789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.160287978618508</v>
+      </c>
+      <c r="D29">
+        <v>1.045836757523978</v>
+      </c>
+      <c r="E29">
+        <v>0.7299472409272159</v>
+      </c>
+      <c r="F29">
+        <v>1.279123584899632</v>
+      </c>
+      <c r="G29">
+        <v>0.4507117834674396</v>
+      </c>
+      <c r="H29">
+        <v>1.045836757523978</v>
+      </c>
+      <c r="I29">
+        <v>1.135421177622889</v>
+      </c>
+      <c r="J29">
+        <v>0.4507117834674396</v>
+      </c>
+      <c r="K29">
+        <v>1.045836757523978</v>
+      </c>
+      <c r="L29">
+        <v>1.135421177622889</v>
+      </c>
+      <c r="M29">
+        <v>0.7930664805451642</v>
+      </c>
+      <c r="N29">
+        <v>0.7930664805451642</v>
+      </c>
+      <c r="O29">
+        <v>0.7720267340058481</v>
+      </c>
+      <c r="P29">
+        <v>0.877323239538102</v>
+      </c>
+      <c r="Q29">
+        <v>0.8773232395381019</v>
+      </c>
+      <c r="R29">
+        <v>0.9194516190345708</v>
+      </c>
+      <c r="S29">
+        <v>0.9194516190345708</v>
+      </c>
+      <c r="T29">
+        <v>0.9668880871766103</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.045852028845077</v>
+        <v>0.9197319489889534</v>
       </c>
       <c r="D4">
-        <v>1.060625766359161</v>
+        <v>0.8798655644993481</v>
       </c>
       <c r="E4">
-        <v>0.8936311605532722</v>
+        <v>1.170443381995552</v>
       </c>
       <c r="F4">
-        <v>1.122206596945874</v>
+        <v>0.844726202399358</v>
       </c>
       <c r="G4">
-        <v>0.8506039545739954</v>
+        <v>1.324012724172329</v>
       </c>
       <c r="H4">
-        <v>1.060625766359161</v>
+        <v>0.8798655644993481</v>
       </c>
       <c r="I4">
-        <v>1.034774659876782</v>
+        <v>0.9373609518538774</v>
       </c>
       <c r="J4">
-        <v>0.8506039545739954</v>
+        <v>1.324012724172329</v>
       </c>
       <c r="K4">
-        <v>1.060625766359161</v>
+        <v>0.8798655644993481</v>
       </c>
       <c r="L4">
-        <v>1.034774659876782</v>
+        <v>0.9373609518538774</v>
       </c>
       <c r="M4">
-        <v>0.9426893072253885</v>
+        <v>1.130686838013103</v>
       </c>
       <c r="N4">
-        <v>0.9426893072253885</v>
+        <v>1.130686838013103</v>
       </c>
       <c r="O4">
-        <v>0.9263365916680164</v>
+        <v>1.143939019340586</v>
       </c>
       <c r="P4">
-        <v>0.9820014602699793</v>
+        <v>1.047079746841852</v>
       </c>
       <c r="Q4">
-        <v>0.9820014602699793</v>
+        <v>1.047079746841852</v>
       </c>
       <c r="R4">
-        <v>1.001657536792275</v>
+        <v>1.005276201256226</v>
       </c>
       <c r="S4">
-        <v>1.001657536792275</v>
+        <v>1.005276201256226</v>
       </c>
       <c r="T4">
-        <v>1.00128236119236</v>
+        <v>1.012690128984903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9082055507276665</v>
+        <v>1.131680942882218</v>
       </c>
       <c r="D5">
-        <v>0.8758524963717566</v>
+        <v>1.192291589991047</v>
       </c>
       <c r="E5">
-        <v>1.192978757567722</v>
+        <v>0.6781631208654123</v>
       </c>
       <c r="F5">
-        <v>0.8184661270406317</v>
+        <v>1.504292497166265</v>
       </c>
       <c r="G5">
-        <v>1.361864915276078</v>
+        <v>0.44873830086442</v>
       </c>
       <c r="H5">
-        <v>0.8758524963717566</v>
+        <v>1.192291589991047</v>
       </c>
       <c r="I5">
-        <v>0.923721825273775</v>
+        <v>1.074270227139526</v>
       </c>
       <c r="J5">
-        <v>1.361864915276078</v>
+        <v>0.44873830086442</v>
       </c>
       <c r="K5">
-        <v>0.8758524963717566</v>
+        <v>1.192291589991047</v>
       </c>
       <c r="L5">
-        <v>0.923721825273775</v>
+        <v>1.074270227139526</v>
       </c>
       <c r="M5">
-        <v>1.142793370274927</v>
+        <v>0.761504264001973</v>
       </c>
       <c r="N5">
-        <v>1.142793370274927</v>
+        <v>0.761504264001973</v>
       </c>
       <c r="O5">
-        <v>1.159521832705859</v>
+        <v>0.7337238829564527</v>
       </c>
       <c r="P5">
-        <v>1.05381307897387</v>
+        <v>0.9051000393316643</v>
       </c>
       <c r="Q5">
-        <v>1.05381307897387</v>
+        <v>0.9051000393316643</v>
       </c>
       <c r="R5">
-        <v>1.009322933323342</v>
+        <v>0.9768979269965099</v>
       </c>
       <c r="S5">
-        <v>1.009322933323342</v>
+        <v>0.9768979269965099</v>
       </c>
       <c r="T5">
-        <v>1.013514945376272</v>
+        <v>1.004906113151481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6734398901329712</v>
+        <v>1.045852028845077</v>
       </c>
       <c r="D6">
-        <v>0.5165948920461889</v>
+        <v>1.060625766359161</v>
       </c>
       <c r="E6">
-        <v>1.670238201248365</v>
+        <v>0.8936311605532722</v>
       </c>
       <c r="F6">
-        <v>0.4453172439371813</v>
+        <v>1.122206596945874</v>
       </c>
       <c r="G6">
-        <v>2.252649967099699</v>
+        <v>0.8506039545739954</v>
       </c>
       <c r="H6">
-        <v>0.5165948920461889</v>
+        <v>1.060625766359161</v>
       </c>
       <c r="I6">
-        <v>0.7540469289031674</v>
+        <v>1.034774659876782</v>
       </c>
       <c r="J6">
-        <v>2.252649967099699</v>
+        <v>0.8506039545739954</v>
       </c>
       <c r="K6">
-        <v>0.5165948920461889</v>
+        <v>1.060625766359161</v>
       </c>
       <c r="L6">
-        <v>0.7540469289031674</v>
+        <v>1.034774659876782</v>
       </c>
       <c r="M6">
-        <v>1.503348448001433</v>
+        <v>0.9426893072253885</v>
       </c>
       <c r="N6">
-        <v>1.503348448001433</v>
+        <v>0.9426893072253885</v>
       </c>
       <c r="O6">
-        <v>1.55897836575041</v>
+        <v>0.9263365916680164</v>
       </c>
       <c r="P6">
-        <v>1.174430596016352</v>
+        <v>0.9820014602699793</v>
       </c>
       <c r="Q6">
-        <v>1.174430596016352</v>
+        <v>0.9820014602699793</v>
       </c>
       <c r="R6">
-        <v>1.009971670023811</v>
+        <v>1.001657536792275</v>
       </c>
       <c r="S6">
-        <v>1.009971670023811</v>
+        <v>1.001657536792275</v>
       </c>
       <c r="T6">
-        <v>1.052047853894595</v>
+        <v>1.00128236119236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.991752084836559</v>
+        <v>0.9082055507276665</v>
       </c>
       <c r="D7">
-        <v>0.9988896862669233</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="E7">
-        <v>1.018899583511139</v>
+        <v>1.192978757567722</v>
       </c>
       <c r="F7">
-        <v>0.9696519811559705</v>
+        <v>0.8184661270406317</v>
       </c>
       <c r="G7">
-        <v>1.027865337090444</v>
+        <v>1.361864915276078</v>
       </c>
       <c r="H7">
-        <v>0.9988896862669233</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="I7">
-        <v>0.9886510237946938</v>
+        <v>0.923721825273775</v>
       </c>
       <c r="J7">
-        <v>1.027865337090444</v>
+        <v>1.361864915276078</v>
       </c>
       <c r="K7">
-        <v>0.9988896862669233</v>
+        <v>0.8758524963717566</v>
       </c>
       <c r="L7">
-        <v>0.9886510237946938</v>
+        <v>0.923721825273775</v>
       </c>
       <c r="M7">
-        <v>1.008258180442569</v>
+        <v>1.142793370274927</v>
       </c>
       <c r="N7">
-        <v>1.008258180442569</v>
+        <v>1.142793370274927</v>
       </c>
       <c r="O7">
-        <v>1.011805314798759</v>
+        <v>1.159521832705859</v>
       </c>
       <c r="P7">
-        <v>1.005135349050687</v>
+        <v>1.05381307897387</v>
       </c>
       <c r="Q7">
-        <v>1.005135349050687</v>
+        <v>1.05381307897387</v>
       </c>
       <c r="R7">
-        <v>1.003573933354746</v>
+        <v>1.009322933323342</v>
       </c>
       <c r="S7">
-        <v>1.003573933354746</v>
+        <v>1.009322933323342</v>
       </c>
       <c r="T7">
-        <v>0.9992849494426216</v>
+        <v>1.013514945376272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991881495454132</v>
+        <v>0.6734398901329712</v>
       </c>
       <c r="D8">
-        <v>1.001038239787398</v>
+        <v>0.5165948920461889</v>
       </c>
       <c r="E8">
-        <v>1.00134665013841</v>
+        <v>1.670238201248365</v>
       </c>
       <c r="F8">
-        <v>0.9969848261408647</v>
+        <v>0.4453172439371813</v>
       </c>
       <c r="G8">
-        <v>1.002282218877807</v>
+        <v>2.252649967099699</v>
       </c>
       <c r="H8">
-        <v>1.001038239787398</v>
+        <v>0.5165948920461889</v>
       </c>
       <c r="I8">
-        <v>0.9991188360249758</v>
+        <v>0.7540469289031674</v>
       </c>
       <c r="J8">
-        <v>1.002282218877807</v>
+        <v>2.252649967099699</v>
       </c>
       <c r="K8">
-        <v>1.001038239787398</v>
+        <v>0.5165948920461889</v>
       </c>
       <c r="L8">
-        <v>0.9991188360249758</v>
+        <v>0.7540469289031674</v>
       </c>
       <c r="M8">
-        <v>1.000700527451392</v>
+        <v>1.503348448001433</v>
       </c>
       <c r="N8">
-        <v>1.000700527451392</v>
+        <v>1.503348448001433</v>
       </c>
       <c r="O8">
-        <v>1.000915901680398</v>
+        <v>1.55897836575041</v>
       </c>
       <c r="P8">
-        <v>1.00081309823006</v>
+        <v>1.174430596016352</v>
       </c>
       <c r="Q8">
-        <v>1.00081309823006</v>
+        <v>1.174430596016352</v>
       </c>
       <c r="R8">
-        <v>1.000869383619395</v>
+        <v>1.009971670023811</v>
       </c>
       <c r="S8">
-        <v>1.000869383619395</v>
+        <v>1.009971670023811</v>
       </c>
       <c r="T8">
-        <v>0.9999931534191449</v>
+        <v>1.052047853894595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9836292319781862</v>
+        <v>0.991752084836559</v>
       </c>
       <c r="D9">
-        <v>0.9944260273942619</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="E9">
-        <v>1.036139782684184</v>
+        <v>1.018899583511139</v>
       </c>
       <c r="F9">
-        <v>0.9459945826159266</v>
+        <v>0.9696519811559705</v>
       </c>
       <c r="G9">
-        <v>1.056636630990185</v>
+        <v>1.027865337090444</v>
       </c>
       <c r="H9">
-        <v>0.9944260273942619</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="I9">
-        <v>0.9798867912512477</v>
+        <v>0.9886510237946938</v>
       </c>
       <c r="J9">
-        <v>1.056636630990185</v>
+        <v>1.027865337090444</v>
       </c>
       <c r="K9">
-        <v>0.9944260273942619</v>
+        <v>0.9988896862669233</v>
       </c>
       <c r="L9">
-        <v>0.9798867912512477</v>
+        <v>0.9886510237946938</v>
       </c>
       <c r="M9">
-        <v>1.018261711120716</v>
+        <v>1.008258180442569</v>
       </c>
       <c r="N9">
-        <v>1.018261711120716</v>
+        <v>1.008258180442569</v>
       </c>
       <c r="O9">
-        <v>1.024221068308539</v>
+        <v>1.011805314798759</v>
       </c>
       <c r="P9">
-        <v>1.010316483211898</v>
+        <v>1.005135349050687</v>
       </c>
       <c r="Q9">
-        <v>1.010316483211898</v>
+        <v>1.005135349050687</v>
       </c>
       <c r="R9">
-        <v>1.006343869257489</v>
+        <v>1.003573933354746</v>
       </c>
       <c r="S9">
-        <v>1.006343869257489</v>
+        <v>1.003573933354746</v>
       </c>
       <c r="T9">
-        <v>0.9994521744856653</v>
+        <v>0.9992849494426216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6683024179032657</v>
+        <v>0.9991881495454132</v>
       </c>
       <c r="D10">
-        <v>0.5058976321713459</v>
+        <v>1.001038239787398</v>
       </c>
       <c r="E10">
-        <v>1.68040834956675</v>
+        <v>1.00134665013841</v>
       </c>
       <c r="F10">
-        <v>0.4408782912671037</v>
+        <v>0.9969848261408647</v>
       </c>
       <c r="G10">
-        <v>2.272896606581873</v>
+        <v>1.002282218877807</v>
       </c>
       <c r="H10">
-        <v>0.5058976321713459</v>
+        <v>1.001038239787398</v>
       </c>
       <c r="I10">
-        <v>0.7515414994412276</v>
+        <v>0.9991188360249758</v>
       </c>
       <c r="J10">
-        <v>2.272896606581873</v>
+        <v>1.002282218877807</v>
       </c>
       <c r="K10">
-        <v>0.5058976321713459</v>
+        <v>1.001038239787398</v>
       </c>
       <c r="L10">
-        <v>0.7515414994412276</v>
+        <v>0.9991188360249758</v>
       </c>
       <c r="M10">
-        <v>1.51221905301155</v>
+        <v>1.000700527451392</v>
       </c>
       <c r="N10">
-        <v>1.51221905301155</v>
+        <v>1.000700527451392</v>
       </c>
       <c r="O10">
-        <v>1.568282151863283</v>
+        <v>1.000915901680398</v>
       </c>
       <c r="P10">
-        <v>1.176778579398149</v>
+        <v>1.00081309823006</v>
       </c>
       <c r="Q10">
-        <v>1.176778579398149</v>
+        <v>1.00081309823006</v>
       </c>
       <c r="R10">
-        <v>1.009058342591448</v>
+        <v>1.000869383619395</v>
       </c>
       <c r="S10">
-        <v>1.009058342591448</v>
+        <v>1.000869383619395</v>
       </c>
       <c r="T10">
-        <v>1.053320799488594</v>
+        <v>0.9999931534191449</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.033272268877234</v>
+        <v>0.9836292319781862</v>
       </c>
       <c r="D11">
-        <v>1.07558425517188</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="E11">
-        <v>0.9503773386351939</v>
+        <v>1.036139782684184</v>
       </c>
       <c r="F11">
-        <v>0.948612063721247</v>
+        <v>0.9459945826159266</v>
       </c>
       <c r="G11">
-        <v>0.8887146450017073</v>
+        <v>1.056636630990185</v>
       </c>
       <c r="H11">
-        <v>1.07558425517188</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="I11">
-        <v>1.008061094245881</v>
+        <v>0.9798867912512477</v>
       </c>
       <c r="J11">
-        <v>0.8887146450017073</v>
+        <v>1.056636630990185</v>
       </c>
       <c r="K11">
-        <v>1.07558425517188</v>
+        <v>0.9944260273942619</v>
       </c>
       <c r="L11">
-        <v>1.008061094245881</v>
+        <v>0.9798867912512477</v>
       </c>
       <c r="M11">
-        <v>0.9483878696237944</v>
+        <v>1.018261711120716</v>
       </c>
       <c r="N11">
-        <v>0.9483878696237944</v>
+        <v>1.018261711120716</v>
       </c>
       <c r="O11">
-        <v>0.9490510259609275</v>
+        <v>1.024221068308539</v>
       </c>
       <c r="P11">
-        <v>0.9907866648064897</v>
+        <v>1.010316483211898</v>
       </c>
       <c r="Q11">
-        <v>0.9907866648064897</v>
+        <v>1.010316483211898</v>
       </c>
       <c r="R11">
-        <v>1.011986062397837</v>
+        <v>1.006343869257489</v>
       </c>
       <c r="S11">
-        <v>1.011986062397837</v>
+        <v>1.006343869257489</v>
       </c>
       <c r="T11">
-        <v>0.9841036109421907</v>
+        <v>0.9994521744856653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9026457856736833</v>
+        <v>0.6683024179032657</v>
       </c>
       <c r="D12">
-        <v>0.8460077723473672</v>
+        <v>0.5058976321713459</v>
       </c>
       <c r="E12">
-        <v>1.201521426014737</v>
+        <v>1.68040834956675</v>
       </c>
       <c r="F12">
-        <v>0.8407287985115789</v>
+        <v>0.4408782912671037</v>
       </c>
       <c r="G12">
-        <v>1.38316166533284</v>
+        <v>2.272896606581873</v>
       </c>
       <c r="H12">
-        <v>0.8460077723473672</v>
+        <v>0.5058976321713459</v>
       </c>
       <c r="I12">
-        <v>0.9290229744421054</v>
+        <v>0.7515414994412276</v>
       </c>
       <c r="J12">
-        <v>1.38316166533284</v>
+        <v>2.272896606581873</v>
       </c>
       <c r="K12">
-        <v>0.8460077723473672</v>
+        <v>0.5058976321713459</v>
       </c>
       <c r="L12">
-        <v>0.9290229744421054</v>
+        <v>0.7515414994412276</v>
       </c>
       <c r="M12">
-        <v>1.156092319887473</v>
+        <v>1.51221905301155</v>
       </c>
       <c r="N12">
-        <v>1.156092319887473</v>
+        <v>1.51221905301155</v>
       </c>
       <c r="O12">
-        <v>1.171235355263227</v>
+        <v>1.568282151863283</v>
       </c>
       <c r="P12">
-        <v>1.052730804040771</v>
+        <v>1.176778579398149</v>
       </c>
       <c r="Q12">
-        <v>1.052730804040771</v>
+        <v>1.176778579398149</v>
       </c>
       <c r="R12">
-        <v>1.00105004611742</v>
+        <v>1.009058342591448</v>
       </c>
       <c r="S12">
-        <v>1.00105004611742</v>
+        <v>1.009058342591448</v>
       </c>
       <c r="T12">
-        <v>1.017181403720385</v>
+        <v>1.053320799488594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.060748654780054</v>
+        <v>1.033272268877234</v>
       </c>
       <c r="D13">
-        <v>1.063939392709653</v>
+        <v>1.07558425517188</v>
       </c>
       <c r="E13">
-        <v>0.8686325679436686</v>
+        <v>0.9503773386351939</v>
       </c>
       <c r="F13">
-        <v>1.151942483823162</v>
+        <v>0.948612063721247</v>
       </c>
       <c r="G13">
-        <v>0.7568517896844327</v>
+        <v>0.8887146450017073</v>
       </c>
       <c r="H13">
-        <v>1.063939392709653</v>
+        <v>1.07558425517188</v>
       </c>
       <c r="I13">
-        <v>1.058225048353157</v>
+        <v>1.008061094245881</v>
       </c>
       <c r="J13">
-        <v>0.7568517896844327</v>
+        <v>0.8887146450017073</v>
       </c>
       <c r="K13">
-        <v>1.063939392709653</v>
+        <v>1.07558425517188</v>
       </c>
       <c r="L13">
-        <v>1.058225048353157</v>
+        <v>1.008061094245881</v>
       </c>
       <c r="M13">
-        <v>0.9075384190187946</v>
+        <v>0.9483878696237944</v>
       </c>
       <c r="N13">
-        <v>0.9075384190187946</v>
+        <v>0.9483878696237944</v>
       </c>
       <c r="O13">
-        <v>0.8945698019937526</v>
+        <v>0.9490510259609275</v>
       </c>
       <c r="P13">
-        <v>0.9596720769157475</v>
+        <v>0.9907866648064897</v>
       </c>
       <c r="Q13">
-        <v>0.9596720769157475</v>
+        <v>0.9907866648064897</v>
       </c>
       <c r="R13">
-        <v>0.9857389058642241</v>
+        <v>1.011986062397837</v>
       </c>
       <c r="S13">
-        <v>0.9857389058642241</v>
+        <v>1.011986062397837</v>
       </c>
       <c r="T13">
-        <v>0.9933899895490211</v>
+        <v>0.9841036109421907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4245495099999994</v>
+        <v>0.9026457856736833</v>
       </c>
       <c r="D14">
-        <v>0.1424155799999999</v>
+        <v>0.8460077723473672</v>
       </c>
       <c r="E14">
-        <v>2.176175800000001</v>
+        <v>1.201521426014737</v>
       </c>
       <c r="F14">
-        <v>0.044891432</v>
+        <v>0.8407287985115789</v>
       </c>
       <c r="G14">
-        <v>3.193908999999997</v>
+        <v>1.38316166533284</v>
       </c>
       <c r="H14">
-        <v>0.1424155799999999</v>
+        <v>0.8460077723473672</v>
       </c>
       <c r="I14">
-        <v>0.57115904</v>
+        <v>0.9290229744421054</v>
       </c>
       <c r="J14">
-        <v>3.193908999999997</v>
+        <v>1.38316166533284</v>
       </c>
       <c r="K14">
-        <v>0.1424155799999999</v>
+        <v>0.8460077723473672</v>
       </c>
       <c r="L14">
-        <v>0.57115904</v>
+        <v>0.9290229744421054</v>
       </c>
       <c r="M14">
-        <v>1.882534019999998</v>
+        <v>1.156092319887473</v>
       </c>
       <c r="N14">
-        <v>1.882534019999998</v>
+        <v>1.156092319887473</v>
       </c>
       <c r="O14">
-        <v>1.980414613333332</v>
+        <v>1.171235355263227</v>
       </c>
       <c r="P14">
-        <v>1.302494539999999</v>
+        <v>1.052730804040771</v>
       </c>
       <c r="Q14">
-        <v>1.302494539999999</v>
+        <v>1.052730804040771</v>
       </c>
       <c r="R14">
-        <v>1.012474799999999</v>
+        <v>1.00105004611742</v>
       </c>
       <c r="S14">
-        <v>1.012474799999999</v>
+        <v>1.00105004611742</v>
       </c>
       <c r="T14">
-        <v>1.092183393666666</v>
+        <v>1.017181403720385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.134</v>
+        <v>1.060748654780054</v>
       </c>
       <c r="D15">
-        <v>3.4428622</v>
+        <v>1.063939392709653</v>
       </c>
       <c r="E15">
-        <v>0.39134565</v>
+        <v>0.8686325679436686</v>
       </c>
       <c r="F15">
-        <v>0.21380688</v>
+        <v>1.151942483823162</v>
       </c>
       <c r="G15">
-        <v>0.023300756</v>
+        <v>0.7568517896844327</v>
       </c>
       <c r="H15">
-        <v>3.4428622</v>
+        <v>1.063939392709653</v>
       </c>
       <c r="I15">
-        <v>0.42160412</v>
+        <v>1.058225048353157</v>
       </c>
       <c r="J15">
-        <v>0.023300756</v>
+        <v>0.7568517896844327</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>1.063939392709653</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>1.058225048353157</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>0.9075384190187946</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>0.9075384190187946</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>0.8945698019937526</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>0.9596720769157475</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>0.9596720769157475</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>0.9857389058642241</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>0.9857389058642241</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>0.9933899895490211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.3839943</v>
+        <v>0.4245495099999994</v>
       </c>
       <c r="D16">
-        <v>1.6032202</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="E16">
-        <v>0.19752824</v>
+        <v>2.176175800000001</v>
       </c>
       <c r="F16">
-        <v>1.6038972</v>
+        <v>0.044891432</v>
       </c>
       <c r="G16">
-        <v>0.012810897</v>
+        <v>3.193908999999997</v>
       </c>
       <c r="H16">
-        <v>1.6032202</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="I16">
-        <v>1.1282501</v>
+        <v>0.57115904</v>
       </c>
       <c r="J16">
-        <v>0.012810897</v>
+        <v>3.193908999999997</v>
       </c>
       <c r="K16">
-        <v>1.6032202</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="L16">
-        <v>1.1282501</v>
+        <v>0.57115904</v>
       </c>
       <c r="M16">
-        <v>0.5705304985</v>
+        <v>1.882534019999998</v>
       </c>
       <c r="N16">
-        <v>0.5705304985</v>
+        <v>1.882534019999998</v>
       </c>
       <c r="O16">
-        <v>0.4461964123333333</v>
+        <v>1.980414613333332</v>
       </c>
       <c r="P16">
-        <v>0.9147603990000001</v>
+        <v>1.302494539999999</v>
       </c>
       <c r="Q16">
-        <v>0.9147603990000001</v>
+        <v>1.302494539999999</v>
       </c>
       <c r="R16">
-        <v>1.08687534925</v>
+        <v>1.012474799999999</v>
       </c>
       <c r="S16">
-        <v>1.08687534925</v>
+        <v>1.012474799999999</v>
       </c>
       <c r="T16">
-        <v>0.9882834895</v>
+        <v>1.092183393666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.3278473</v>
+        <v>1.134</v>
       </c>
       <c r="D17">
-        <v>1.0973062</v>
+        <v>3.4428622</v>
       </c>
       <c r="E17">
-        <v>0.16970919</v>
+        <v>0.39134565</v>
       </c>
       <c r="F17">
-        <v>2.4946312</v>
+        <v>0.21380688</v>
       </c>
       <c r="G17">
-        <v>0.013823113</v>
+        <v>0.023300756</v>
       </c>
       <c r="H17">
-        <v>1.0973062</v>
+        <v>3.4428622</v>
       </c>
       <c r="I17">
-        <v>1.3875695</v>
+        <v>0.42160412</v>
       </c>
       <c r="J17">
-        <v>0.013823113</v>
+        <v>0.023300756</v>
       </c>
       <c r="K17">
-        <v>1.0973062</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>1.3875695</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>0.7006963064999999</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>0.7006963064999999</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>0.5237006009999999</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>0.8328996043333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>0.8328996043333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>0.89900125325</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>0.89900125325</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>1.081814417166667</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.810573397260274</v>
+        <v>1.3839943</v>
       </c>
       <c r="D18">
-        <v>0.9732692501917805</v>
+        <v>1.6032202</v>
       </c>
       <c r="E18">
-        <v>1.416720482602739</v>
+        <v>0.19752824</v>
       </c>
       <c r="F18">
-        <v>0.3419288072931508</v>
+        <v>1.6038972</v>
       </c>
       <c r="G18">
-        <v>1.656428450547946</v>
+        <v>0.012810897</v>
       </c>
       <c r="H18">
-        <v>0.9732692501917805</v>
+        <v>1.6032202</v>
       </c>
       <c r="I18">
-        <v>0.7538242334246578</v>
+        <v>1.1282501</v>
       </c>
       <c r="J18">
-        <v>1.656428450547946</v>
+        <v>0.012810897</v>
       </c>
       <c r="K18">
-        <v>0.9732692501917805</v>
+        <v>1.6032202</v>
       </c>
       <c r="L18">
-        <v>0.7538242334246578</v>
+        <v>1.1282501</v>
       </c>
       <c r="M18">
-        <v>1.205126341986302</v>
+        <v>0.5705304985</v>
       </c>
       <c r="N18">
-        <v>1.205126341986302</v>
+        <v>0.5705304985</v>
       </c>
       <c r="O18">
-        <v>1.275657722191781</v>
+        <v>0.4461964123333333</v>
       </c>
       <c r="P18">
-        <v>1.127840644721461</v>
+        <v>0.9147603990000001</v>
       </c>
       <c r="Q18">
-        <v>1.127840644721461</v>
+        <v>0.9147603990000001</v>
       </c>
       <c r="R18">
-        <v>1.089197796089041</v>
+        <v>1.08687534925</v>
       </c>
       <c r="S18">
-        <v>1.089197796089041</v>
+        <v>1.08687534925</v>
       </c>
       <c r="T18">
-        <v>0.9921241035534246</v>
+        <v>0.9882834895</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9972905463157895</v>
+        <v>1.3278473</v>
       </c>
       <c r="D19">
-        <v>0.7707098973684211</v>
+        <v>1.0973062</v>
       </c>
       <c r="E19">
-        <v>0.8299944868421053</v>
+        <v>0.16970919</v>
       </c>
       <c r="F19">
-        <v>1.777354282315789</v>
+        <v>2.4946312</v>
       </c>
       <c r="G19">
-        <v>1.244688769789473</v>
+        <v>0.013823113</v>
       </c>
       <c r="H19">
-        <v>0.7707098973684211</v>
+        <v>1.0973062</v>
       </c>
       <c r="I19">
-        <v>1.125876118421053</v>
+        <v>1.3875695</v>
       </c>
       <c r="J19">
-        <v>1.244688769789473</v>
+        <v>0.013823113</v>
       </c>
       <c r="K19">
-        <v>0.7707098973684211</v>
+        <v>1.0973062</v>
       </c>
       <c r="L19">
-        <v>1.125876118421053</v>
+        <v>1.3875695</v>
       </c>
       <c r="M19">
-        <v>1.185282444105263</v>
+        <v>0.7006963064999999</v>
       </c>
       <c r="N19">
-        <v>1.185282444105263</v>
+        <v>0.7006963064999999</v>
       </c>
       <c r="O19">
-        <v>1.066853125017544</v>
+        <v>0.5237006009999999</v>
       </c>
       <c r="P19">
-        <v>1.047091595192982</v>
+        <v>0.8328996043333333</v>
       </c>
       <c r="Q19">
-        <v>1.047091595192982</v>
+        <v>0.8328996043333333</v>
       </c>
       <c r="R19">
-        <v>0.977996170736842</v>
+        <v>0.89900125325</v>
       </c>
       <c r="S19">
-        <v>0.977996170736842</v>
+        <v>0.89900125325</v>
       </c>
       <c r="T19">
-        <v>1.124319016842105</v>
+        <v>1.081814417166667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.080473502105263</v>
+        <v>0.810573397260274</v>
       </c>
       <c r="D20">
-        <v>1.167429815789474</v>
+        <v>0.9732692501917805</v>
       </c>
       <c r="E20">
-        <v>0.7816177821052632</v>
+        <v>1.416720482602739</v>
       </c>
       <c r="F20">
-        <v>1.367896982736842</v>
+        <v>0.3419288072931508</v>
       </c>
       <c r="G20">
-        <v>0.6336225186526315</v>
+        <v>1.656428450547946</v>
       </c>
       <c r="H20">
-        <v>1.167429815789474</v>
+        <v>0.9732692501917805</v>
       </c>
       <c r="I20">
-        <v>1.022271596842105</v>
+        <v>0.7538242334246578</v>
       </c>
       <c r="J20">
-        <v>0.6336225186526315</v>
+        <v>1.656428450547946</v>
       </c>
       <c r="K20">
-        <v>1.167429815789474</v>
+        <v>0.9732692501917805</v>
       </c>
       <c r="L20">
-        <v>1.022271596842105</v>
+        <v>0.7538242334246578</v>
       </c>
       <c r="M20">
-        <v>0.8279470577473684</v>
+        <v>1.205126341986302</v>
       </c>
       <c r="N20">
-        <v>0.8279470577473684</v>
+        <v>1.205126341986302</v>
       </c>
       <c r="O20">
-        <v>0.8125039658666667</v>
+        <v>1.275657722191781</v>
       </c>
       <c r="P20">
-        <v>0.9411079770947369</v>
+        <v>1.127840644721461</v>
       </c>
       <c r="Q20">
-        <v>0.9411079770947369</v>
+        <v>1.127840644721461</v>
       </c>
       <c r="R20">
-        <v>0.9976884367684211</v>
+        <v>1.089197796089041</v>
       </c>
       <c r="S20">
-        <v>0.9976884367684211</v>
+        <v>1.089197796089041</v>
       </c>
       <c r="T20">
-        <v>1.00888536637193</v>
+        <v>0.9921241035534246</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.005043496379461</v>
+        <v>0.9972905463157895</v>
       </c>
       <c r="D21">
-        <v>0.5063513293273471</v>
+        <v>0.7707098973684211</v>
       </c>
       <c r="E21">
-        <v>0.9346638511948349</v>
+        <v>0.8299944868421053</v>
       </c>
       <c r="F21">
-        <v>1.70896085236904</v>
+        <v>1.777354282315789</v>
       </c>
       <c r="G21">
-        <v>1.133231073840437</v>
+        <v>1.244688769789473</v>
       </c>
       <c r="H21">
-        <v>0.5063513293273471</v>
+        <v>0.7707098973684211</v>
       </c>
       <c r="I21">
-        <v>1.205819316301074</v>
+        <v>1.125876118421053</v>
       </c>
       <c r="J21">
-        <v>1.133231073840437</v>
+        <v>1.244688769789473</v>
       </c>
       <c r="K21">
-        <v>0.5063513293273471</v>
+        <v>0.7707098973684211</v>
       </c>
       <c r="L21">
-        <v>1.205819316301074</v>
+        <v>1.125876118421053</v>
       </c>
       <c r="M21">
-        <v>1.169525195070755</v>
+        <v>1.185282444105263</v>
       </c>
       <c r="N21">
-        <v>1.169525195070755</v>
+        <v>1.185282444105263</v>
       </c>
       <c r="O21">
-        <v>1.091238080445448</v>
+        <v>1.066853125017544</v>
       </c>
       <c r="P21">
-        <v>0.9484672398229527</v>
+        <v>1.047091595192982</v>
       </c>
       <c r="Q21">
-        <v>0.9484672398229526</v>
+        <v>1.047091595192982</v>
       </c>
       <c r="R21">
-        <v>0.8379382621990512</v>
+        <v>0.977996170736842</v>
       </c>
       <c r="S21">
-        <v>0.8379382621990512</v>
+        <v>0.977996170736842</v>
       </c>
       <c r="T21">
-        <v>1.082344986568699</v>
+        <v>1.124319016842105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.048364768093853</v>
+        <v>1.080473502105263</v>
       </c>
       <c r="D22">
-        <v>1.231506167274014</v>
+        <v>1.167429815789474</v>
       </c>
       <c r="E22">
-        <v>0.9330540408966668</v>
+        <v>0.7816177821052632</v>
       </c>
       <c r="F22">
-        <v>0.7342906767667204</v>
+        <v>1.367896982736842</v>
       </c>
       <c r="G22">
-        <v>0.8684645401865594</v>
+        <v>0.6336225186526315</v>
       </c>
       <c r="H22">
-        <v>1.231506167274014</v>
+        <v>1.167429815789474</v>
       </c>
       <c r="I22">
-        <v>0.9700202581814543</v>
+        <v>1.022271596842105</v>
       </c>
       <c r="J22">
-        <v>0.8684645401865594</v>
+        <v>0.6336225186526315</v>
       </c>
       <c r="K22">
-        <v>1.231506167274014</v>
+        <v>1.167429815789474</v>
       </c>
       <c r="L22">
-        <v>0.9700202581814543</v>
+        <v>1.022271596842105</v>
       </c>
       <c r="M22">
-        <v>0.9192423991840069</v>
+        <v>0.8279470577473684</v>
       </c>
       <c r="N22">
-        <v>0.9192423991840069</v>
+        <v>0.8279470577473684</v>
       </c>
       <c r="O22">
-        <v>0.9238462797548935</v>
+        <v>0.8125039658666667</v>
       </c>
       <c r="P22">
-        <v>1.023330321880676</v>
+        <v>0.9411079770947369</v>
       </c>
       <c r="Q22">
-        <v>1.023330321880676</v>
+        <v>0.9411079770947369</v>
       </c>
       <c r="R22">
-        <v>1.07537428322901</v>
+        <v>0.9976884367684211</v>
       </c>
       <c r="S22">
-        <v>1.07537428322901</v>
+        <v>0.9976884367684211</v>
       </c>
       <c r="T22">
-        <v>0.9642834085665445</v>
+        <v>1.00888536637193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.054856370919584</v>
+        <v>1.005043496379461</v>
       </c>
       <c r="D23">
-        <v>1.403528402389452</v>
+        <v>0.5063513293273471</v>
       </c>
       <c r="E23">
-        <v>0.9214158108128403</v>
+        <v>0.9346638511948349</v>
       </c>
       <c r="F23">
-        <v>0.6690815528534579</v>
+        <v>1.70896085236904</v>
       </c>
       <c r="G23">
-        <v>0.6635768923684404</v>
+        <v>1.133231073840437</v>
       </c>
       <c r="H23">
-        <v>1.403528402389452</v>
+        <v>0.5063513293273471</v>
       </c>
       <c r="I23">
-        <v>0.9124005190079704</v>
+        <v>1.205819316301074</v>
       </c>
       <c r="J23">
-        <v>0.6635768923684404</v>
+        <v>1.133231073840437</v>
       </c>
       <c r="K23">
-        <v>1.403528402389452</v>
+        <v>0.5063513293273471</v>
       </c>
       <c r="L23">
-        <v>0.9124005190079704</v>
+        <v>1.205819316301074</v>
       </c>
       <c r="M23">
-        <v>0.7879887056882053</v>
+        <v>1.169525195070755</v>
       </c>
       <c r="N23">
-        <v>0.7879887056882053</v>
+        <v>1.169525195070755</v>
       </c>
       <c r="O23">
-        <v>0.8324644073964169</v>
+        <v>1.091238080445448</v>
       </c>
       <c r="P23">
-        <v>0.9931686045886208</v>
+        <v>0.9484672398229527</v>
       </c>
       <c r="Q23">
-        <v>0.9931686045886209</v>
+        <v>0.9484672398229526</v>
       </c>
       <c r="R23">
-        <v>1.095758554038829</v>
+        <v>0.8379382621990512</v>
       </c>
       <c r="S23">
-        <v>1.095758554038829</v>
+        <v>0.8379382621990512</v>
       </c>
       <c r="T23">
-        <v>0.9374765913919575</v>
+        <v>1.082344986568699</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.996385589877836</v>
+        <v>1.048364768093853</v>
       </c>
       <c r="D24">
-        <v>0.8468081759927384</v>
+        <v>1.231506167274014</v>
       </c>
       <c r="E24">
-        <v>0.990954488041769</v>
+        <v>0.9330540408966668</v>
       </c>
       <c r="F24">
-        <v>1.194609717712538</v>
+        <v>0.7342906767667204</v>
       </c>
       <c r="G24">
-        <v>1.056037866762896</v>
+        <v>0.8684645401865594</v>
       </c>
       <c r="H24">
-        <v>0.8468081759927384</v>
+        <v>1.231506167274014</v>
       </c>
       <c r="I24">
-        <v>1.056712734359743</v>
+        <v>0.9700202581814543</v>
       </c>
       <c r="J24">
-        <v>1.056037866762896</v>
+        <v>0.8684645401865594</v>
       </c>
       <c r="K24">
-        <v>0.8468081759927384</v>
+        <v>1.231506167274014</v>
       </c>
       <c r="L24">
-        <v>1.056712734359743</v>
+        <v>0.9700202581814543</v>
       </c>
       <c r="M24">
-        <v>1.056375300561319</v>
+        <v>0.9192423991840069</v>
       </c>
       <c r="N24">
-        <v>1.056375300561319</v>
+        <v>0.9192423991840069</v>
       </c>
       <c r="O24">
-        <v>1.034568363054803</v>
+        <v>0.9238462797548935</v>
       </c>
       <c r="P24">
-        <v>0.9865195923717923</v>
+        <v>1.023330321880676</v>
       </c>
       <c r="Q24">
-        <v>0.9865195923717923</v>
+        <v>1.023330321880676</v>
       </c>
       <c r="R24">
-        <v>0.9515917382770288</v>
+        <v>1.07537428322901</v>
       </c>
       <c r="S24">
-        <v>0.9515917382770288</v>
+        <v>1.07537428322901</v>
       </c>
       <c r="T24">
-        <v>1.023584762124587</v>
+        <v>0.9642834085665445</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.183435388925062</v>
+        <v>1.054856370919584</v>
       </c>
       <c r="D25">
-        <v>1.329707728750819</v>
+        <v>1.403528402389452</v>
       </c>
       <c r="E25">
-        <v>0.6087841194178971</v>
+        <v>0.9214158108128403</v>
       </c>
       <c r="F25">
-        <v>1.281198579278703</v>
+        <v>0.6690815528534579</v>
       </c>
       <c r="G25">
-        <v>0.2345726095171259</v>
+        <v>0.6635768923684404</v>
       </c>
       <c r="H25">
-        <v>1.329707728750819</v>
+        <v>1.403528402389452</v>
       </c>
       <c r="I25">
-        <v>1.137756355835122</v>
+        <v>0.9124005190079704</v>
       </c>
       <c r="J25">
-        <v>0.2345726095171259</v>
+        <v>0.6635768923684404</v>
       </c>
       <c r="K25">
-        <v>1.329707728750819</v>
+        <v>1.403528402389452</v>
       </c>
       <c r="L25">
-        <v>1.137756355835122</v>
+        <v>0.9124005190079704</v>
       </c>
       <c r="M25">
-        <v>0.6861644826761241</v>
+        <v>0.7879887056882053</v>
       </c>
       <c r="N25">
-        <v>0.6861644826761241</v>
+        <v>0.7879887056882053</v>
       </c>
       <c r="O25">
-        <v>0.6603710282567151</v>
+        <v>0.8324644073964169</v>
       </c>
       <c r="P25">
-        <v>0.9006788980343557</v>
+        <v>0.9931686045886208</v>
       </c>
       <c r="Q25">
-        <v>0.9006788980343557</v>
+        <v>0.9931686045886209</v>
       </c>
       <c r="R25">
-        <v>1.007936105713471</v>
+        <v>1.095758554038829</v>
       </c>
       <c r="S25">
-        <v>1.007936105713471</v>
+        <v>1.095758554038829</v>
       </c>
       <c r="T25">
-        <v>0.9625757969541215</v>
+        <v>0.9374765913919575</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.025124699423622</v>
+        <v>0.996385589877836</v>
       </c>
       <c r="D26">
-        <v>0.9804380847934403</v>
+        <v>0.8468081759927384</v>
       </c>
       <c r="E26">
-        <v>0.9256060515221944</v>
+        <v>0.990954488041769</v>
       </c>
       <c r="F26">
-        <v>1.235506213360569</v>
+        <v>1.194609717712538</v>
       </c>
       <c r="G26">
-        <v>0.8225992114436458</v>
+        <v>1.056037866762896</v>
       </c>
       <c r="H26">
-        <v>0.9804380847934403</v>
+        <v>0.8468081759927384</v>
       </c>
       <c r="I26">
-        <v>1.037012166403133</v>
+        <v>1.056712734359743</v>
       </c>
       <c r="J26">
-        <v>0.8225992114436458</v>
+        <v>1.056037866762896</v>
       </c>
       <c r="K26">
-        <v>0.9804380847934403</v>
+        <v>0.8468081759927384</v>
       </c>
       <c r="L26">
-        <v>1.037012166403133</v>
+        <v>1.056712734359743</v>
       </c>
       <c r="M26">
-        <v>0.9298056889233893</v>
+        <v>1.056375300561319</v>
       </c>
       <c r="N26">
-        <v>0.9298056889233893</v>
+        <v>1.056375300561319</v>
       </c>
       <c r="O26">
-        <v>0.9284058097896577</v>
+        <v>1.034568363054803</v>
       </c>
       <c r="P26">
-        <v>0.9466831542134063</v>
+        <v>0.9865195923717923</v>
       </c>
       <c r="Q26">
-        <v>0.9466831542134063</v>
+        <v>0.9865195923717923</v>
       </c>
       <c r="R26">
-        <v>0.9551218868584148</v>
+        <v>0.9515917382770288</v>
       </c>
       <c r="S26">
-        <v>0.9551218868584148</v>
+        <v>0.9515917382770288</v>
       </c>
       <c r="T26">
-        <v>1.004381071157767</v>
+        <v>1.023584762124587</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9344069449597986</v>
+        <v>1.183435388925062</v>
       </c>
       <c r="D27">
-        <v>1.092560181185477</v>
+        <v>1.329707728750819</v>
       </c>
       <c r="E27">
-        <v>1.058691254306719</v>
+        <v>0.6087841194178971</v>
       </c>
       <c r="F27">
-        <v>0.999531640615495</v>
+        <v>1.281198579278703</v>
       </c>
       <c r="G27">
-        <v>1.284110411752585</v>
+        <v>0.2345726095171259</v>
       </c>
       <c r="H27">
-        <v>1.092560181185477</v>
+        <v>1.329707728750819</v>
       </c>
       <c r="I27">
-        <v>0.8687185007847665</v>
+        <v>1.137756355835122</v>
       </c>
       <c r="J27">
-        <v>1.284110411752585</v>
+        <v>0.2345726095171259</v>
       </c>
       <c r="K27">
-        <v>1.092560181185477</v>
+        <v>1.329707728750819</v>
       </c>
       <c r="L27">
-        <v>0.8687185007847665</v>
+        <v>1.137756355835122</v>
       </c>
       <c r="M27">
-        <v>1.076414456268676</v>
+        <v>0.6861644826761241</v>
       </c>
       <c r="N27">
-        <v>1.076414456268676</v>
+        <v>0.6861644826761241</v>
       </c>
       <c r="O27">
-        <v>1.070506722281357</v>
+        <v>0.6603710282567151</v>
       </c>
       <c r="P27">
-        <v>1.081796364574276</v>
+        <v>0.9006788980343557</v>
       </c>
       <c r="Q27">
-        <v>1.081796364574276</v>
+        <v>0.9006788980343557</v>
       </c>
       <c r="R27">
-        <v>1.084487318727076</v>
+        <v>1.007936105713471</v>
       </c>
       <c r="S27">
-        <v>1.084487318727076</v>
+        <v>1.007936105713471</v>
       </c>
       <c r="T27">
-        <v>1.039669822267473</v>
+        <v>0.9625757969541215</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.044581880552614</v>
+        <v>1.025124699423622</v>
       </c>
       <c r="D28">
-        <v>0.9483018996480834</v>
+        <v>0.9804380847934403</v>
       </c>
       <c r="E28">
-        <v>0.9317934164169679</v>
+        <v>0.9256060515221944</v>
       </c>
       <c r="F28">
-        <v>1.126851910448931</v>
+        <v>1.235506213360569</v>
       </c>
       <c r="G28">
-        <v>0.8860231326254117</v>
+        <v>0.8225992114436458</v>
       </c>
       <c r="H28">
-        <v>0.9483018996480834</v>
+        <v>0.9804380847934403</v>
       </c>
       <c r="I28">
-        <v>1.048396762309665</v>
+        <v>1.037012166403133</v>
       </c>
       <c r="J28">
-        <v>0.8860231326254117</v>
+        <v>0.8225992114436458</v>
       </c>
       <c r="K28">
-        <v>0.9483018996480834</v>
+        <v>0.9804380847934403</v>
       </c>
       <c r="L28">
-        <v>1.048396762309665</v>
+        <v>1.037012166403133</v>
       </c>
       <c r="M28">
-        <v>0.9672099474675382</v>
+        <v>0.9298056889233893</v>
       </c>
       <c r="N28">
-        <v>0.9672099474675382</v>
+        <v>0.9298056889233893</v>
       </c>
       <c r="O28">
-        <v>0.9554044371173481</v>
+        <v>0.9284058097896577</v>
       </c>
       <c r="P28">
-        <v>0.9609072648610533</v>
+        <v>0.9466831542134063</v>
       </c>
       <c r="Q28">
-        <v>0.9609072648610533</v>
+        <v>0.9466831542134063</v>
       </c>
       <c r="R28">
-        <v>0.9577559235578108</v>
+        <v>0.9551218868584148</v>
       </c>
       <c r="S28">
-        <v>0.9577559235578108</v>
+        <v>0.9551218868584148</v>
       </c>
       <c r="T28">
-        <v>0.9976581670002789</v>
+        <v>1.004381071157767</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9344069449597986</v>
+      </c>
+      <c r="D29">
+        <v>1.092560181185477</v>
+      </c>
+      <c r="E29">
+        <v>1.058691254306719</v>
+      </c>
+      <c r="F29">
+        <v>0.999531640615495</v>
+      </c>
+      <c r="G29">
+        <v>1.284110411752585</v>
+      </c>
+      <c r="H29">
+        <v>1.092560181185477</v>
+      </c>
+      <c r="I29">
+        <v>0.8687185007847665</v>
+      </c>
+      <c r="J29">
+        <v>1.284110411752585</v>
+      </c>
+      <c r="K29">
+        <v>1.092560181185477</v>
+      </c>
+      <c r="L29">
+        <v>0.8687185007847665</v>
+      </c>
+      <c r="M29">
+        <v>1.076414456268676</v>
+      </c>
+      <c r="N29">
+        <v>1.076414456268676</v>
+      </c>
+      <c r="O29">
+        <v>1.070506722281357</v>
+      </c>
+      <c r="P29">
+        <v>1.081796364574276</v>
+      </c>
+      <c r="Q29">
+        <v>1.081796364574276</v>
+      </c>
+      <c r="R29">
+        <v>1.084487318727076</v>
+      </c>
+      <c r="S29">
+        <v>1.084487318727076</v>
+      </c>
+      <c r="T29">
+        <v>1.039669822267473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.044581880552614</v>
+      </c>
+      <c r="D30">
+        <v>0.9483018996480834</v>
+      </c>
+      <c r="E30">
+        <v>0.9317934164169679</v>
+      </c>
+      <c r="F30">
+        <v>1.126851910448931</v>
+      </c>
+      <c r="G30">
+        <v>0.8860231326254117</v>
+      </c>
+      <c r="H30">
+        <v>0.9483018996480834</v>
+      </c>
+      <c r="I30">
+        <v>1.048396762309665</v>
+      </c>
+      <c r="J30">
+        <v>0.8860231326254117</v>
+      </c>
+      <c r="K30">
+        <v>0.9483018996480834</v>
+      </c>
+      <c r="L30">
+        <v>1.048396762309665</v>
+      </c>
+      <c r="M30">
+        <v>0.9672099474675382</v>
+      </c>
+      <c r="N30">
+        <v>0.9672099474675382</v>
+      </c>
+      <c r="O30">
+        <v>0.9554044371173481</v>
+      </c>
+      <c r="P30">
+        <v>0.9609072648610533</v>
+      </c>
+      <c r="Q30">
+        <v>0.9609072648610533</v>
+      </c>
+      <c r="R30">
+        <v>0.9577559235578108</v>
+      </c>
+      <c r="S30">
+        <v>0.9577559235578108</v>
+      </c>
+      <c r="T30">
+        <v>0.9976581670002789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.160287978618508</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.045836757523978</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.7299472409272159</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.279123584899632</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.4507117834674396</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.045836757523978</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.135421177622889</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.4507117834674396</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.045836757523978</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.135421177622889</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.7930664805451642</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.7930664805451642</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7720267340058481</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.877323239538102</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.8773232395381019</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9194516190345708</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9194516190345708</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9668880871766103</v>
       </c>
     </row>
